--- a/システム開発演習/000-要件定義/003-WBS.xlsx
+++ b/システム開発演習/000-要件定義/003-WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cryst\OneDrive\デスクトップ\システム開発演習\000-要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFCD888-ECBD-4644-9AF5-1CDA5C94F596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB975FA-56BF-4828-A46D-678DBF56BA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -29,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="45">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -457,6 +455,13 @@
       <t>ロク</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>要件定義</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1573,7 +1578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1749,6 +1754,141 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1758,6 +1898,258 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1766,360 +2158,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="3" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2825,115 +2863,115 @@
   </sheetPr>
   <dimension ref="A1:BN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF45" sqref="AF45"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.125" style="3" customWidth="1"/>
-    <col min="31" max="66" width="3.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
+    <col min="31" max="66" width="3.109375" style="1" customWidth="1"/>
     <col min="67" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="116"/>
+      <c r="E1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="85" t="s">
+      <c r="F1" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="61">
+      <c r="G1" s="106">
         <v>45536</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="62"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="61">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="106">
         <v>45566</v>
       </c>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="62"/>
-      <c r="AQ1" s="62"/>
-      <c r="AR1" s="62"/>
-      <c r="AS1" s="62"/>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="62"/>
-      <c r="AZ1" s="62"/>
-      <c r="BA1" s="62"/>
-      <c r="BB1" s="62"/>
-      <c r="BC1" s="62"/>
-      <c r="BD1" s="62"/>
-      <c r="BE1" s="62"/>
-      <c r="BF1" s="62"/>
-      <c r="BG1" s="62"/>
-      <c r="BH1" s="62"/>
-      <c r="BI1" s="62"/>
-      <c r="BJ1" s="62"/>
-      <c r="BK1" s="62"/>
-      <c r="BL1" s="62"/>
-      <c r="BM1" s="62"/>
-      <c r="BN1" s="63"/>
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="107"/>
+      <c r="AS1" s="107"/>
+      <c r="AT1" s="107"/>
+      <c r="AU1" s="107"/>
+      <c r="AV1" s="107"/>
+      <c r="AW1" s="107"/>
+      <c r="AX1" s="107"/>
+      <c r="AY1" s="107"/>
+      <c r="AZ1" s="107"/>
+      <c r="BA1" s="107"/>
+      <c r="BB1" s="107"/>
+      <c r="BC1" s="107"/>
+      <c r="BD1" s="107"/>
+      <c r="BE1" s="107"/>
+      <c r="BF1" s="107"/>
+      <c r="BG1" s="107"/>
+      <c r="BH1" s="107"/>
+      <c r="BI1" s="107"/>
+      <c r="BJ1" s="107"/>
+      <c r="BK1" s="107"/>
+      <c r="BL1" s="107"/>
+      <c r="BM1" s="107"/>
+      <c r="BN1" s="108"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="86"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3175,12 +3213,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="87"/>
+      <c r="A3" s="111"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="126"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3268,10 +3306,10 @@
       <c r="AI3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="AJ3" s="160" t="s">
+      <c r="AJ3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="AK3" s="183" t="s">
+      <c r="AK3" s="93" t="s">
         <v>20</v>
       </c>
       <c r="AL3" s="57" t="s">
@@ -3280,19 +3318,19 @@
       <c r="AM3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AN3" s="184" t="s">
+      <c r="AN3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AO3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" s="184" t="s">
+      <c r="AP3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AQ3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AR3" s="184" t="s">
+      <c r="AR3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AS3" s="57" t="s">
@@ -3301,19 +3339,19 @@
       <c r="AT3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="AU3" s="184" t="s">
+      <c r="AU3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="AV3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AW3" s="184" t="s">
+      <c r="AW3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="AX3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AY3" s="184" t="s">
+      <c r="AY3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="AZ3" s="57" t="s">
@@ -3322,19 +3360,19 @@
       <c r="BA3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BB3" s="184" t="s">
+      <c r="BB3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="BC3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="184" t="s">
+      <c r="BD3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="BE3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BF3" s="184" t="s">
+      <c r="BF3" s="94" t="s">
         <v>20</v>
       </c>
       <c r="BG3" s="57" t="s">
@@ -3343,43 +3381,43 @@
       <c r="BH3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BI3" s="184" t="s">
+      <c r="BI3" s="94" t="s">
         <v>16</v>
       </c>
       <c r="BJ3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BK3" s="184" t="s">
+      <c r="BK3" s="94" t="s">
         <v>18</v>
       </c>
       <c r="BL3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BM3" s="184" t="s">
+      <c r="BM3" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="BN3" s="160" t="s">
+      <c r="BN3" s="70" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="90">
+      <c r="A4" s="137">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
       <c r="N4" s="10"/>
@@ -3404,8 +3442,8 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="18"/>
       <c r="AI4" s="10"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="172"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="82"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
       <c r="AN4" s="12"/>
@@ -3434,20 +3472,20 @@
       <c r="BK4" s="10"/>
       <c r="BL4" s="10"/>
       <c r="BM4" s="10"/>
-      <c r="BN4" s="161"/>
+      <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
       <c r="N5" s="9"/>
@@ -3472,8 +3510,8 @@
       <c r="AG5" s="16"/>
       <c r="AH5" s="22"/>
       <c r="AI5" s="9"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="173"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="83"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="16"/>
@@ -3502,31 +3540,31 @@
       <c r="BK5" s="9"/>
       <c r="BL5" s="9"/>
       <c r="BM5" s="9"/>
-      <c r="BN5" s="162"/>
+      <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
+      <c r="A6" s="127">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="129" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="115"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="135"/>
       <c r="G6" s="51"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="104"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
       <c r="S6" s="13"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
@@ -3544,8 +3582,8 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="163"/>
-      <c r="AK6" s="174"/>
+      <c r="AJ6" s="73"/>
+      <c r="AK6" s="84"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
       <c r="AN6" s="13"/>
@@ -3574,27 +3612,27 @@
       <c r="BK6" s="7"/>
       <c r="BL6" s="7"/>
       <c r="BM6" s="7"/>
-      <c r="BN6" s="163"/>
+      <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
+      <c r="A7" s="128"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="136"/>
       <c r="G7" s="52"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
       <c r="S7" s="25"/>
       <c r="T7" s="26"/>
       <c r="U7" s="26"/>
@@ -3612,8 +3650,8 @@
       <c r="AG7" s="25"/>
       <c r="AH7" s="26"/>
       <c r="AI7" s="24"/>
-      <c r="AJ7" s="164"/>
-      <c r="AK7" s="175"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="85"/>
       <c r="AL7" s="24"/>
       <c r="AM7" s="24"/>
       <c r="AN7" s="25"/>
@@ -3642,33 +3680,33 @@
       <c r="BK7" s="24"/>
       <c r="BL7" s="24"/>
       <c r="BM7" s="24"/>
-      <c r="BN7" s="164"/>
+      <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
+      <c r="A8" s="146">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="124"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="154"/>
       <c r="G8" s="38"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="40"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
-      <c r="N8" s="153"/>
-      <c r="O8" s="155"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="155"/>
-      <c r="R8" s="155"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -3686,8 +3724,8 @@
       <c r="AG8" s="15"/>
       <c r="AH8" s="21"/>
       <c r="AI8" s="6"/>
-      <c r="AJ8" s="165"/>
-      <c r="AK8" s="176"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="86"/>
       <c r="AL8" s="6"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="15"/>
@@ -3716,27 +3754,27 @@
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
       <c r="BM8" s="6"/>
-      <c r="BN8" s="165"/>
+      <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="89"/>
+      <c r="A9" s="147"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="155"/>
       <c r="G9" s="53"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
       <c r="L9" s="44"/>
       <c r="M9" s="45"/>
-      <c r="N9" s="154"/>
-      <c r="O9" s="156"/>
-      <c r="P9" s="156"/>
-      <c r="Q9" s="156"/>
-      <c r="R9" s="156"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
       <c r="S9" s="44"/>
       <c r="T9" s="45"/>
       <c r="U9" s="45"/>
@@ -3754,8 +3792,8 @@
       <c r="AG9" s="44"/>
       <c r="AH9" s="45"/>
       <c r="AI9" s="43"/>
-      <c r="AJ9" s="166"/>
-      <c r="AK9" s="177"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="87"/>
       <c r="AL9" s="43"/>
       <c r="AM9" s="43"/>
       <c r="AN9" s="44"/>
@@ -3784,38 +3822,38 @@
       <c r="BK9" s="43"/>
       <c r="BL9" s="43"/>
       <c r="BM9" s="43"/>
-      <c r="BN9" s="166"/>
+      <c r="BN9" s="76"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="88">
+      <c r="A10" s="156">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="106"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="163"/>
       <c r="G10" s="50"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
       <c r="L10" s="16"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="152"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="152"/>
-      <c r="R10" s="152"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="98"/>
       <c r="S10" s="16"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="16"/>
@@ -3828,8 +3866,8 @@
       <c r="AG10" s="16"/>
       <c r="AH10" s="22"/>
       <c r="AI10" s="9"/>
-      <c r="AJ10" s="162"/>
-      <c r="AK10" s="173"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="83"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="16"/>
@@ -3858,34 +3896,34 @@
       <c r="BK10" s="9"/>
       <c r="BL10" s="9"/>
       <c r="BM10" s="9"/>
-      <c r="BN10" s="162"/>
+      <c r="BN10" s="72"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="89"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="164"/>
       <c r="G11" s="50"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="16"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="152"/>
-      <c r="O11" s="152"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="152"/>
-      <c r="R11" s="152"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
       <c r="S11" s="16"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="22"/>
@@ -3896,8 +3934,8 @@
       <c r="AG11" s="16"/>
       <c r="AH11" s="22"/>
       <c r="AI11" s="9"/>
-      <c r="AJ11" s="162"/>
-      <c r="AK11" s="173"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="83"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="16"/>
@@ -3926,38 +3964,38 @@
       <c r="BK11" s="9"/>
       <c r="BL11" s="9"/>
       <c r="BM11" s="9"/>
-      <c r="BN11" s="162"/>
+      <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="117">
+      <c r="A12" s="146">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="168"/>
       <c r="G12" s="51"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
       <c r="L12" s="13"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="30"/>
       <c r="S12" s="13"/>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
@@ -3968,8 +4006,8 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="7"/>
-      <c r="AJ12" s="163"/>
-      <c r="AK12" s="174"/>
+      <c r="AJ12" s="73"/>
+      <c r="AK12" s="84"/>
       <c r="AL12" s="7"/>
       <c r="AM12" s="7"/>
       <c r="AN12" s="13"/>
@@ -3998,27 +4036,27 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="163"/>
+      <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="88"/>
+      <c r="A13" s="156"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="163"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
       <c r="L13" s="25"/>
       <c r="M13" s="26"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
       <c r="S13" s="25"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
@@ -4036,8 +4074,8 @@
       <c r="AG13" s="25"/>
       <c r="AH13" s="26"/>
       <c r="AI13" s="24"/>
-      <c r="AJ13" s="164"/>
-      <c r="AK13" s="175"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="85"/>
       <c r="AL13" s="24"/>
       <c r="AM13" s="24"/>
       <c r="AN13" s="25"/>
@@ -4066,52 +4104,52 @@
       <c r="BK13" s="24"/>
       <c r="BL13" s="24"/>
       <c r="BM13" s="24"/>
-      <c r="BN13" s="164"/>
+      <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="130">
+      <c r="A14" s="169">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="124"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="154"/>
       <c r="G14" s="38"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
       <c r="L14" s="15"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-      <c r="P14" s="155"/>
-      <c r="Q14" s="155"/>
-      <c r="R14" s="155"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
       <c r="S14" s="15"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
+      <c r="W14" s="40"/>
+      <c r="X14" s="40"/>
+      <c r="Y14" s="40"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
-      <c r="AC14" s="6"/>
+      <c r="AC14" s="99"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="21"/>
       <c r="AI14" s="6"/>
-      <c r="AJ14" s="165"/>
-      <c r="AK14" s="176"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="86"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
       <c r="AN14" s="15"/>
@@ -4140,27 +4178,27 @@
       <c r="BK14" s="6"/>
       <c r="BL14" s="6"/>
       <c r="BM14" s="6"/>
-      <c r="BN14" s="165"/>
+      <c r="BN14" s="75"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
+      <c r="A15" s="169"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="164"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="154"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
       <c r="L15" s="25"/>
       <c r="M15" s="26"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
       <c r="S15" s="25"/>
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
@@ -4172,14 +4210,14 @@
       <c r="AA15" s="26"/>
       <c r="AB15" s="26"/>
       <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
+      <c r="AD15" s="105"/>
+      <c r="AE15" s="105"/>
       <c r="AF15" s="24"/>
       <c r="AG15" s="25"/>
       <c r="AH15" s="26"/>
       <c r="AI15" s="24"/>
-      <c r="AJ15" s="164"/>
-      <c r="AK15" s="175"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="85"/>
       <c r="AL15" s="24"/>
       <c r="AM15" s="24"/>
       <c r="AN15" s="25"/>
@@ -4208,19 +4246,19 @@
       <c r="BK15" s="24"/>
       <c r="BL15" s="24"/>
       <c r="BM15" s="24"/>
-      <c r="BN15" s="164"/>
+      <c r="BN15" s="74"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="130">
+      <c r="A16" s="169">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="129"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="168"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4228,11 +4266,11 @@
       <c r="K16" s="7"/>
       <c r="L16" s="13"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="153"/>
-      <c r="Q16" s="153"/>
-      <c r="R16" s="153"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
@@ -4243,15 +4281,15 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="104"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="7"/>
-      <c r="AJ16" s="163"/>
-      <c r="AK16" s="174"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="84"/>
       <c r="AL16" s="7"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="13"/>
@@ -4280,15 +4318,15 @@
       <c r="BK16" s="7"/>
       <c r="BL16" s="7"/>
       <c r="BM16" s="7"/>
-      <c r="BN16" s="163"/>
+      <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="164"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4296,11 +4334,11 @@
       <c r="K17" s="24"/>
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
@@ -4318,8 +4356,8 @@
       <c r="AG17" s="25"/>
       <c r="AH17" s="26"/>
       <c r="AI17" s="24"/>
-      <c r="AJ17" s="164"/>
-      <c r="AK17" s="175"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="85"/>
       <c r="AL17" s="24"/>
       <c r="AM17" s="24"/>
       <c r="AN17" s="25"/>
@@ -4348,19 +4386,19 @@
       <c r="BK17" s="24"/>
       <c r="BL17" s="24"/>
       <c r="BM17" s="24"/>
-      <c r="BN17" s="164"/>
+      <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="130">
+      <c r="A18" s="169">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="129"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="168"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4368,67 +4406,67 @@
       <c r="K18" s="24"/>
       <c r="L18" s="25"/>
       <c r="M18" s="26"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
       <c r="S18" s="25"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26"/>
-      <c r="V18" s="154"/>
-      <c r="W18" s="154"/>
-      <c r="X18" s="154"/>
-      <c r="Y18" s="154"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="26"/>
-      <c r="AC18" s="154"/>
-      <c r="AD18" s="154"/>
-      <c r="AE18" s="154"/>
-      <c r="AF18" s="154"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
       <c r="AG18" s="25"/>
       <c r="AH18" s="26"/>
-      <c r="AI18" s="154"/>
-      <c r="AJ18" s="167"/>
-      <c r="AK18" s="178"/>
-      <c r="AL18" s="154"/>
-      <c r="AM18" s="154"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="77"/>
+      <c r="AK18" s="88"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="64"/>
       <c r="AN18" s="25"/>
       <c r="AO18" s="26"/>
-      <c r="AP18" s="154"/>
-      <c r="AQ18" s="154"/>
-      <c r="AR18" s="154"/>
-      <c r="AS18" s="154"/>
-      <c r="AT18" s="154"/>
+      <c r="AP18" s="64"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="64"/>
       <c r="AU18" s="25"/>
       <c r="AV18" s="26"/>
       <c r="AW18" s="26"/>
-      <c r="AX18" s="154"/>
-      <c r="AY18" s="154"/>
-      <c r="AZ18" s="154"/>
-      <c r="BA18" s="154"/>
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="64"/>
+      <c r="AZ18" s="64"/>
+      <c r="BA18" s="64"/>
       <c r="BB18" s="25"/>
       <c r="BC18" s="26"/>
-      <c r="BD18" s="154"/>
-      <c r="BE18" s="154"/>
-      <c r="BF18" s="154"/>
-      <c r="BG18" s="154"/>
-      <c r="BH18" s="154"/>
+      <c r="BD18" s="64"/>
+      <c r="BE18" s="64"/>
+      <c r="BF18" s="64"/>
+      <c r="BG18" s="64"/>
+      <c r="BH18" s="64"/>
       <c r="BI18" s="25"/>
       <c r="BJ18" s="26"/>
-      <c r="BK18" s="154"/>
-      <c r="BL18" s="154"/>
-      <c r="BM18" s="154"/>
-      <c r="BN18" s="167"/>
+      <c r="BK18" s="64"/>
+      <c r="BL18" s="64"/>
+      <c r="BM18" s="64"/>
+      <c r="BN18" s="77"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
+      <c r="A19" s="169"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="155"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4436,73 +4474,73 @@
       <c r="K19" s="8"/>
       <c r="L19" s="17"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
       <c r="S19" s="17"/>
       <c r="T19" s="23"/>
       <c r="U19" s="23"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="23"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
+      <c r="AC19" s="68"/>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
       <c r="AG19" s="17"/>
       <c r="AH19" s="23"/>
-      <c r="AI19" s="158"/>
-      <c r="AJ19" s="168"/>
-      <c r="AK19" s="179"/>
-      <c r="AL19" s="158"/>
-      <c r="AM19" s="158"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="89"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
       <c r="AN19" s="17"/>
       <c r="AO19" s="23"/>
-      <c r="AP19" s="158"/>
-      <c r="AQ19" s="158"/>
-      <c r="AR19" s="158"/>
-      <c r="AS19" s="158"/>
-      <c r="AT19" s="158"/>
+      <c r="AP19" s="68"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="68"/>
+      <c r="AT19" s="68"/>
       <c r="AU19" s="17"/>
       <c r="AV19" s="23"/>
       <c r="AW19" s="23"/>
-      <c r="AX19" s="158"/>
-      <c r="AY19" s="158"/>
-      <c r="AZ19" s="158"/>
-      <c r="BA19" s="158"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68"/>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
       <c r="BB19" s="17"/>
       <c r="BC19" s="23"/>
-      <c r="BD19" s="158"/>
-      <c r="BE19" s="158"/>
-      <c r="BF19" s="158"/>
-      <c r="BG19" s="158"/>
-      <c r="BH19" s="158"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
       <c r="BI19" s="17"/>
       <c r="BJ19" s="23"/>
-      <c r="BK19" s="158"/>
-      <c r="BL19" s="158"/>
-      <c r="BM19" s="158"/>
-      <c r="BN19" s="168"/>
+      <c r="BK19" s="68"/>
+      <c r="BL19" s="68"/>
+      <c r="BM19" s="68"/>
+      <c r="BN19" s="78"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="117">
+      <c r="A20" s="146">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="124"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="154"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4510,69 +4548,69 @@
       <c r="K20" s="6"/>
       <c r="L20" s="15"/>
       <c r="M20" s="21"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-      <c r="P20" s="155"/>
-      <c r="Q20" s="155"/>
-      <c r="R20" s="155"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
       <c r="S20" s="15"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="65"/>
+      <c r="X20" s="65"/>
+      <c r="Y20" s="65"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="21"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="155"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="65"/>
       <c r="AG20" s="15"/>
       <c r="AH20" s="21"/>
-      <c r="AI20" s="155"/>
-      <c r="AJ20" s="169"/>
-      <c r="AK20" s="180"/>
-      <c r="AL20" s="155"/>
-      <c r="AM20" s="155"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="100"/>
+      <c r="AK20" s="102"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="21"/>
-      <c r="AP20" s="155"/>
-      <c r="AQ20" s="155"/>
-      <c r="AR20" s="155"/>
-      <c r="AS20" s="155"/>
-      <c r="AT20" s="155"/>
+      <c r="AP20" s="65"/>
+      <c r="AQ20" s="65"/>
+      <c r="AR20" s="65"/>
+      <c r="AS20" s="65"/>
+      <c r="AT20" s="65"/>
       <c r="AU20" s="15"/>
       <c r="AV20" s="21"/>
       <c r="AW20" s="21"/>
-      <c r="AX20" s="155"/>
-      <c r="AY20" s="155"/>
-      <c r="AZ20" s="155"/>
-      <c r="BA20" s="155"/>
+      <c r="AX20" s="65"/>
+      <c r="AY20" s="65"/>
+      <c r="AZ20" s="65"/>
+      <c r="BA20" s="65"/>
       <c r="BB20" s="15"/>
       <c r="BC20" s="21"/>
-      <c r="BD20" s="155"/>
-      <c r="BE20" s="155"/>
-      <c r="BF20" s="155"/>
-      <c r="BG20" s="155"/>
-      <c r="BH20" s="155"/>
+      <c r="BD20" s="65"/>
+      <c r="BE20" s="65"/>
+      <c r="BF20" s="65"/>
+      <c r="BG20" s="65"/>
+      <c r="BH20" s="65"/>
       <c r="BI20" s="15"/>
       <c r="BJ20" s="21"/>
-      <c r="BK20" s="155"/>
-      <c r="BL20" s="155"/>
-      <c r="BM20" s="155"/>
-      <c r="BN20" s="169"/>
+      <c r="BK20" s="65"/>
+      <c r="BL20" s="65"/>
+      <c r="BM20" s="65"/>
+      <c r="BN20" s="79"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="89"/>
+      <c r="A21" s="147"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4580,71 +4618,71 @@
       <c r="K21" s="7"/>
       <c r="L21" s="13"/>
       <c r="M21" s="19"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
       <c r="S21" s="13"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
-      <c r="V21" s="153"/>
-      <c r="W21" s="153"/>
-      <c r="X21" s="153"/>
-      <c r="Y21" s="153"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="19"/>
-      <c r="AC21" s="153"/>
-      <c r="AD21" s="153"/>
-      <c r="AE21" s="153"/>
-      <c r="AF21" s="153"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
       <c r="AG21" s="13"/>
       <c r="AH21" s="19"/>
-      <c r="AI21" s="153"/>
-      <c r="AJ21" s="170"/>
-      <c r="AK21" s="181"/>
-      <c r="AL21" s="153"/>
-      <c r="AM21" s="153"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="80"/>
+      <c r="AK21" s="103"/>
+      <c r="AL21" s="104"/>
+      <c r="AM21" s="104"/>
       <c r="AN21" s="13"/>
       <c r="AO21" s="19"/>
-      <c r="AP21" s="153"/>
-      <c r="AQ21" s="153"/>
-      <c r="AR21" s="153"/>
-      <c r="AS21" s="153"/>
-      <c r="AT21" s="153"/>
+      <c r="AP21" s="63"/>
+      <c r="AQ21" s="63"/>
+      <c r="AR21" s="63"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="63"/>
       <c r="AU21" s="13"/>
       <c r="AV21" s="19"/>
       <c r="AW21" s="19"/>
-      <c r="AX21" s="153"/>
-      <c r="AY21" s="153"/>
-      <c r="AZ21" s="153"/>
-      <c r="BA21" s="153"/>
+      <c r="AX21" s="63"/>
+      <c r="AY21" s="63"/>
+      <c r="AZ21" s="63"/>
+      <c r="BA21" s="63"/>
       <c r="BB21" s="13"/>
       <c r="BC21" s="19"/>
-      <c r="BD21" s="153"/>
-      <c r="BE21" s="153"/>
-      <c r="BF21" s="153"/>
-      <c r="BG21" s="153"/>
-      <c r="BH21" s="153"/>
+      <c r="BD21" s="63"/>
+      <c r="BE21" s="63"/>
+      <c r="BF21" s="63"/>
+      <c r="BG21" s="63"/>
+      <c r="BH21" s="63"/>
       <c r="BI21" s="13"/>
       <c r="BJ21" s="19"/>
-      <c r="BK21" s="153"/>
-      <c r="BL21" s="153"/>
-      <c r="BM21" s="153"/>
-      <c r="BN21" s="170"/>
+      <c r="BK21" s="63"/>
+      <c r="BL21" s="63"/>
+      <c r="BM21" s="63"/>
+      <c r="BN21" s="80"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="117">
+      <c r="A22" s="146">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
+      <c r="C22" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="173"/>
+      <c r="F22" s="168"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4652,67 +4690,67 @@
       <c r="K22" s="7"/>
       <c r="L22" s="13"/>
       <c r="M22" s="19"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
       <c r="S22" s="13"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="153"/>
-      <c r="X22" s="153"/>
-      <c r="Y22" s="153"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="19"/>
-      <c r="AC22" s="153"/>
-      <c r="AD22" s="153"/>
-      <c r="AE22" s="153"/>
-      <c r="AF22" s="153"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
       <c r="AG22" s="13"/>
       <c r="AH22" s="19"/>
-      <c r="AI22" s="153"/>
-      <c r="AJ22" s="170"/>
-      <c r="AK22" s="181"/>
-      <c r="AL22" s="153"/>
-      <c r="AM22" s="153"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="101"/>
+      <c r="AL22" s="30"/>
+      <c r="AM22" s="30"/>
       <c r="AN22" s="13"/>
       <c r="AO22" s="19"/>
-      <c r="AP22" s="153"/>
-      <c r="AQ22" s="153"/>
-      <c r="AR22" s="153"/>
-      <c r="AS22" s="153"/>
-      <c r="AT22" s="153"/>
+      <c r="AP22" s="30"/>
+      <c r="AQ22" s="30"/>
+      <c r="AR22" s="63"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="63"/>
       <c r="AU22" s="13"/>
       <c r="AV22" s="19"/>
       <c r="AW22" s="19"/>
-      <c r="AX22" s="153"/>
-      <c r="AY22" s="153"/>
-      <c r="AZ22" s="153"/>
-      <c r="BA22" s="153"/>
+      <c r="AX22" s="63"/>
+      <c r="AY22" s="63"/>
+      <c r="AZ22" s="63"/>
+      <c r="BA22" s="63"/>
       <c r="BB22" s="13"/>
       <c r="BC22" s="19"/>
-      <c r="BD22" s="153"/>
-      <c r="BE22" s="153"/>
-      <c r="BF22" s="153"/>
-      <c r="BG22" s="153"/>
-      <c r="BH22" s="153"/>
+      <c r="BD22" s="63"/>
+      <c r="BE22" s="63"/>
+      <c r="BF22" s="63"/>
+      <c r="BG22" s="63"/>
+      <c r="BH22" s="63"/>
       <c r="BI22" s="13"/>
       <c r="BJ22" s="19"/>
-      <c r="BK22" s="153"/>
-      <c r="BL22" s="153"/>
-      <c r="BM22" s="153"/>
-      <c r="BN22" s="170"/>
+      <c r="BK22" s="63"/>
+      <c r="BL22" s="63"/>
+      <c r="BM22" s="63"/>
+      <c r="BN22" s="80"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="89"/>
+      <c r="A23" s="147"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="164"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4720,71 +4758,71 @@
       <c r="K23" s="7"/>
       <c r="L23" s="13"/>
       <c r="M23" s="19"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="153"/>
-      <c r="Q23" s="153"/>
-      <c r="R23" s="153"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
       <c r="S23" s="13"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
-      <c r="V23" s="153"/>
-      <c r="W23" s="153"/>
-      <c r="X23" s="153"/>
-      <c r="Y23" s="153"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="19"/>
-      <c r="AC23" s="153"/>
-      <c r="AD23" s="153"/>
-      <c r="AE23" s="153"/>
-      <c r="AF23" s="153"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
       <c r="AG23" s="13"/>
       <c r="AH23" s="19"/>
-      <c r="AI23" s="153"/>
-      <c r="AJ23" s="170"/>
-      <c r="AK23" s="181"/>
-      <c r="AL23" s="153"/>
-      <c r="AM23" s="153"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="91"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="63"/>
       <c r="AN23" s="13"/>
       <c r="AO23" s="19"/>
-      <c r="AP23" s="153"/>
-      <c r="AQ23" s="153"/>
-      <c r="AR23" s="153"/>
-      <c r="AS23" s="153"/>
-      <c r="AT23" s="153"/>
+      <c r="AP23" s="63"/>
+      <c r="AQ23" s="63"/>
+      <c r="AR23" s="63"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="63"/>
       <c r="AU23" s="13"/>
       <c r="AV23" s="19"/>
       <c r="AW23" s="19"/>
-      <c r="AX23" s="153"/>
-      <c r="AY23" s="153"/>
-      <c r="AZ23" s="153"/>
-      <c r="BA23" s="153"/>
+      <c r="AX23" s="63"/>
+      <c r="AY23" s="63"/>
+      <c r="AZ23" s="63"/>
+      <c r="BA23" s="63"/>
       <c r="BB23" s="13"/>
       <c r="BC23" s="19"/>
-      <c r="BD23" s="153"/>
-      <c r="BE23" s="153"/>
-      <c r="BF23" s="153"/>
-      <c r="BG23" s="153"/>
-      <c r="BH23" s="153"/>
+      <c r="BD23" s="63"/>
+      <c r="BE23" s="63"/>
+      <c r="BF23" s="63"/>
+      <c r="BG23" s="63"/>
+      <c r="BH23" s="63"/>
       <c r="BI23" s="13"/>
       <c r="BJ23" s="19"/>
-      <c r="BK23" s="153"/>
-      <c r="BL23" s="153"/>
-      <c r="BM23" s="153"/>
-      <c r="BN23" s="170"/>
+      <c r="BK23" s="63"/>
+      <c r="BL23" s="63"/>
+      <c r="BM23" s="63"/>
+      <c r="BN23" s="80"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="117">
+      <c r="A24" s="146">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="129"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="168"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4792,67 +4830,67 @@
       <c r="K24" s="24"/>
       <c r="L24" s="25"/>
       <c r="M24" s="26"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
       <c r="S24" s="25"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="154"/>
-      <c r="Y24" s="154"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="26"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="154"/>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="154"/>
+      <c r="AC24" s="64"/>
+      <c r="AD24" s="64"/>
+      <c r="AE24" s="64"/>
+      <c r="AF24" s="64"/>
       <c r="AG24" s="25"/>
       <c r="AH24" s="26"/>
-      <c r="AI24" s="154"/>
-      <c r="AJ24" s="167"/>
-      <c r="AK24" s="178"/>
-      <c r="AL24" s="154"/>
-      <c r="AM24" s="154"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="77"/>
+      <c r="AK24" s="88"/>
+      <c r="AL24" s="64"/>
+      <c r="AM24" s="64"/>
       <c r="AN24" s="25"/>
       <c r="AO24" s="26"/>
-      <c r="AP24" s="154"/>
-      <c r="AQ24" s="154"/>
-      <c r="AR24" s="154"/>
-      <c r="AS24" s="154"/>
-      <c r="AT24" s="154"/>
+      <c r="AP24" s="105"/>
+      <c r="AQ24" s="105"/>
+      <c r="AR24" s="42"/>
+      <c r="AS24" s="42"/>
+      <c r="AT24" s="42"/>
       <c r="AU24" s="25"/>
       <c r="AV24" s="26"/>
       <c r="AW24" s="26"/>
-      <c r="AX24" s="154"/>
-      <c r="AY24" s="154"/>
-      <c r="AZ24" s="154"/>
-      <c r="BA24" s="154"/>
+      <c r="AX24" s="42"/>
+      <c r="AY24" s="42"/>
+      <c r="AZ24" s="64"/>
+      <c r="BA24" s="64"/>
       <c r="BB24" s="25"/>
       <c r="BC24" s="26"/>
-      <c r="BD24" s="154"/>
-      <c r="BE24" s="154"/>
-      <c r="BF24" s="154"/>
-      <c r="BG24" s="154"/>
-      <c r="BH24" s="154"/>
+      <c r="BD24" s="64"/>
+      <c r="BE24" s="64"/>
+      <c r="BF24" s="64"/>
+      <c r="BG24" s="64"/>
+      <c r="BH24" s="64"/>
       <c r="BI24" s="25"/>
       <c r="BJ24" s="26"/>
-      <c r="BK24" s="154"/>
-      <c r="BL24" s="154"/>
-      <c r="BM24" s="154"/>
-      <c r="BN24" s="167"/>
+      <c r="BK24" s="64"/>
+      <c r="BL24" s="64"/>
+      <c r="BM24" s="64"/>
+      <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="89"/>
+      <c r="A25" s="147"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="125"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="155"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -4860,73 +4898,73 @@
       <c r="K25" s="8"/>
       <c r="L25" s="17"/>
       <c r="M25" s="23"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="158"/>
-      <c r="P25" s="158"/>
-      <c r="Q25" s="158"/>
-      <c r="R25" s="158"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
       <c r="S25" s="17"/>
       <c r="T25" s="23"/>
       <c r="U25" s="23"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="23"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="158"/>
-      <c r="AF25" s="158"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="68"/>
+      <c r="AF25" s="68"/>
       <c r="AG25" s="17"/>
       <c r="AH25" s="23"/>
-      <c r="AI25" s="158"/>
-      <c r="AJ25" s="168"/>
-      <c r="AK25" s="179"/>
-      <c r="AL25" s="158"/>
-      <c r="AM25" s="158"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="78"/>
+      <c r="AK25" s="89"/>
+      <c r="AL25" s="68"/>
+      <c r="AM25" s="68"/>
       <c r="AN25" s="17"/>
       <c r="AO25" s="23"/>
-      <c r="AP25" s="158"/>
-      <c r="AQ25" s="158"/>
-      <c r="AR25" s="158"/>
-      <c r="AS25" s="158"/>
-      <c r="AT25" s="158"/>
+      <c r="AP25" s="68"/>
+      <c r="AQ25" s="68"/>
+      <c r="AR25" s="68"/>
+      <c r="AS25" s="68"/>
+      <c r="AT25" s="68"/>
       <c r="AU25" s="17"/>
       <c r="AV25" s="23"/>
       <c r="AW25" s="23"/>
-      <c r="AX25" s="158"/>
-      <c r="AY25" s="158"/>
-      <c r="AZ25" s="158"/>
-      <c r="BA25" s="158"/>
+      <c r="AX25" s="68"/>
+      <c r="AY25" s="68"/>
+      <c r="AZ25" s="68"/>
+      <c r="BA25" s="68"/>
       <c r="BB25" s="17"/>
       <c r="BC25" s="23"/>
-      <c r="BD25" s="158"/>
-      <c r="BE25" s="158"/>
-      <c r="BF25" s="158"/>
-      <c r="BG25" s="158"/>
-      <c r="BH25" s="158"/>
+      <c r="BD25" s="68"/>
+      <c r="BE25" s="68"/>
+      <c r="BF25" s="68"/>
+      <c r="BG25" s="68"/>
+      <c r="BH25" s="68"/>
       <c r="BI25" s="17"/>
       <c r="BJ25" s="23"/>
-      <c r="BK25" s="158"/>
-      <c r="BL25" s="158"/>
-      <c r="BM25" s="158"/>
-      <c r="BN25" s="168"/>
+      <c r="BK25" s="68"/>
+      <c r="BL25" s="68"/>
+      <c r="BM25" s="68"/>
+      <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="108">
+      <c r="A26" s="127">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="175" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="141"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="181"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -4934,67 +4972,67 @@
       <c r="K26" s="6"/>
       <c r="L26" s="15"/>
       <c r="M26" s="21"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="155"/>
-      <c r="R26" s="155"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
       <c r="S26" s="15"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="21"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="155"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="65"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="21"/>
-      <c r="AI26" s="155"/>
-      <c r="AJ26" s="169"/>
-      <c r="AK26" s="180"/>
-      <c r="AL26" s="155"/>
-      <c r="AM26" s="155"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="90"/>
+      <c r="AL26" s="65"/>
+      <c r="AM26" s="65"/>
       <c r="AN26" s="15"/>
       <c r="AO26" s="21"/>
-      <c r="AP26" s="155"/>
-      <c r="AQ26" s="155"/>
-      <c r="AR26" s="155"/>
-      <c r="AS26" s="155"/>
-      <c r="AT26" s="155"/>
+      <c r="AP26" s="65"/>
+      <c r="AQ26" s="65"/>
+      <c r="AR26" s="65"/>
+      <c r="AS26" s="65"/>
+      <c r="AT26" s="99"/>
       <c r="AU26" s="15"/>
       <c r="AV26" s="21"/>
       <c r="AW26" s="21"/>
-      <c r="AX26" s="155"/>
-      <c r="AY26" s="155"/>
-      <c r="AZ26" s="155"/>
-      <c r="BA26" s="155"/>
+      <c r="AX26" s="99"/>
+      <c r="AY26" s="99"/>
+      <c r="AZ26" s="40"/>
+      <c r="BA26" s="40"/>
       <c r="BB26" s="15"/>
       <c r="BC26" s="21"/>
-      <c r="BD26" s="155"/>
-      <c r="BE26" s="155"/>
-      <c r="BF26" s="155"/>
-      <c r="BG26" s="155"/>
-      <c r="BH26" s="155"/>
+      <c r="BD26" s="40"/>
+      <c r="BE26" s="65"/>
+      <c r="BF26" s="65"/>
+      <c r="BG26" s="65"/>
+      <c r="BH26" s="65"/>
       <c r="BI26" s="15"/>
       <c r="BJ26" s="21"/>
-      <c r="BK26" s="155"/>
-      <c r="BL26" s="155"/>
-      <c r="BM26" s="155"/>
-      <c r="BN26" s="169"/>
+      <c r="BK26" s="65"/>
+      <c r="BL26" s="65"/>
+      <c r="BM26" s="65"/>
+      <c r="BN26" s="79"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="91"/>
+      <c r="A27" s="128"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="142"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="182"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5002,73 +5040,73 @@
       <c r="K27" s="7"/>
       <c r="L27" s="13"/>
       <c r="M27" s="19"/>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153"/>
-      <c r="P27" s="153"/>
-      <c r="Q27" s="153"/>
-      <c r="R27" s="153"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
       <c r="S27" s="13"/>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
-      <c r="V27" s="153"/>
-      <c r="W27" s="153"/>
-      <c r="X27" s="153"/>
-      <c r="Y27" s="153"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="19"/>
-      <c r="AC27" s="153"/>
-      <c r="AD27" s="153"/>
-      <c r="AE27" s="153"/>
-      <c r="AF27" s="153"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
       <c r="AG27" s="13"/>
       <c r="AH27" s="19"/>
-      <c r="AI27" s="153"/>
-      <c r="AJ27" s="170"/>
-      <c r="AK27" s="181"/>
-      <c r="AL27" s="153"/>
-      <c r="AM27" s="153"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="80"/>
+      <c r="AK27" s="91"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
       <c r="AN27" s="13"/>
       <c r="AO27" s="19"/>
-      <c r="AP27" s="153"/>
-      <c r="AQ27" s="153"/>
-      <c r="AR27" s="153"/>
-      <c r="AS27" s="153"/>
-      <c r="AT27" s="153"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
       <c r="AU27" s="13"/>
       <c r="AV27" s="19"/>
       <c r="AW27" s="19"/>
-      <c r="AX27" s="153"/>
-      <c r="AY27" s="153"/>
-      <c r="AZ27" s="153"/>
-      <c r="BA27" s="153"/>
+      <c r="AX27" s="63"/>
+      <c r="AY27" s="63"/>
+      <c r="AZ27" s="63"/>
+      <c r="BA27" s="63"/>
       <c r="BB27" s="13"/>
       <c r="BC27" s="19"/>
-      <c r="BD27" s="153"/>
-      <c r="BE27" s="153"/>
-      <c r="BF27" s="153"/>
-      <c r="BG27" s="153"/>
-      <c r="BH27" s="153"/>
+      <c r="BD27" s="63"/>
+      <c r="BE27" s="63"/>
+      <c r="BF27" s="63"/>
+      <c r="BG27" s="63"/>
+      <c r="BH27" s="63"/>
       <c r="BI27" s="13"/>
       <c r="BJ27" s="19"/>
-      <c r="BK27" s="153"/>
-      <c r="BL27" s="153"/>
-      <c r="BM27" s="153"/>
-      <c r="BN27" s="170"/>
+      <c r="BK27" s="63"/>
+      <c r="BL27" s="63"/>
+      <c r="BM27" s="63"/>
+      <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="108">
+      <c r="A28" s="127">
         <v>14</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C28" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="149"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="188"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -5084,59 +5122,59 @@
       <c r="S28" s="15"/>
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="21"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="65"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="21"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="169"/>
-      <c r="AK28" s="180"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="79"/>
+      <c r="AK28" s="90"/>
+      <c r="AL28" s="65"/>
+      <c r="AM28" s="65"/>
       <c r="AN28" s="15"/>
       <c r="AO28" s="21"/>
-      <c r="AP28" s="155"/>
-      <c r="AQ28" s="155"/>
-      <c r="AR28" s="155"/>
-      <c r="AS28" s="155"/>
-      <c r="AT28" s="155"/>
+      <c r="AP28" s="65"/>
+      <c r="AQ28" s="65"/>
+      <c r="AR28" s="65"/>
+      <c r="AS28" s="65"/>
+      <c r="AT28" s="65"/>
       <c r="AU28" s="15"/>
       <c r="AV28" s="21"/>
       <c r="AW28" s="21"/>
-      <c r="AX28" s="155"/>
-      <c r="AY28" s="155"/>
-      <c r="AZ28" s="155"/>
-      <c r="BA28" s="155"/>
+      <c r="AX28" s="65"/>
+      <c r="AY28" s="65"/>
+      <c r="AZ28" s="99"/>
+      <c r="BA28" s="99"/>
       <c r="BB28" s="15"/>
       <c r="BC28" s="21"/>
-      <c r="BD28" s="155"/>
-      <c r="BE28" s="155"/>
-      <c r="BF28" s="155"/>
-      <c r="BG28" s="155"/>
-      <c r="BH28" s="155"/>
+      <c r="BD28" s="65"/>
+      <c r="BE28" s="40"/>
+      <c r="BF28" s="40"/>
+      <c r="BG28" s="40"/>
+      <c r="BH28" s="40"/>
       <c r="BI28" s="15"/>
       <c r="BJ28" s="21"/>
-      <c r="BK28" s="155"/>
-      <c r="BL28" s="155"/>
-      <c r="BM28" s="155"/>
-      <c r="BN28" s="169"/>
+      <c r="BK28" s="65"/>
+      <c r="BL28" s="65"/>
+      <c r="BM28" s="65"/>
+      <c r="BN28" s="79"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="150"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="189"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -5152,51 +5190,51 @@
       <c r="S29" s="14"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="159"/>
-      <c r="Y29" s="159"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="159"/>
-      <c r="AD29" s="159"/>
-      <c r="AE29" s="159"/>
-      <c r="AF29" s="159"/>
+      <c r="AC29" s="69"/>
+      <c r="AD29" s="69"/>
+      <c r="AE29" s="69"/>
+      <c r="AF29" s="69"/>
       <c r="AG29" s="14"/>
       <c r="AH29" s="20"/>
-      <c r="AI29" s="159"/>
-      <c r="AJ29" s="171"/>
-      <c r="AK29" s="182"/>
-      <c r="AL29" s="159"/>
-      <c r="AM29" s="159"/>
+      <c r="AI29" s="69"/>
+      <c r="AJ29" s="81"/>
+      <c r="AK29" s="92"/>
+      <c r="AL29" s="69"/>
+      <c r="AM29" s="69"/>
       <c r="AN29" s="14"/>
       <c r="AO29" s="20"/>
-      <c r="AP29" s="159"/>
-      <c r="AQ29" s="159"/>
-      <c r="AR29" s="159"/>
-      <c r="AS29" s="159"/>
-      <c r="AT29" s="159"/>
+      <c r="AP29" s="69"/>
+      <c r="AQ29" s="69"/>
+      <c r="AR29" s="69"/>
+      <c r="AS29" s="69"/>
+      <c r="AT29" s="69"/>
       <c r="AU29" s="14"/>
       <c r="AV29" s="20"/>
       <c r="AW29" s="20"/>
-      <c r="AX29" s="159"/>
-      <c r="AY29" s="159"/>
-      <c r="AZ29" s="159"/>
-      <c r="BA29" s="159"/>
+      <c r="AX29" s="69"/>
+      <c r="AY29" s="69"/>
+      <c r="AZ29" s="69"/>
+      <c r="BA29" s="69"/>
       <c r="BB29" s="14"/>
       <c r="BC29" s="20"/>
-      <c r="BD29" s="159"/>
-      <c r="BE29" s="159"/>
-      <c r="BF29" s="159"/>
-      <c r="BG29" s="159"/>
-      <c r="BH29" s="159"/>
+      <c r="BD29" s="69"/>
+      <c r="BE29" s="69"/>
+      <c r="BF29" s="69"/>
+      <c r="BG29" s="69"/>
+      <c r="BH29" s="69"/>
       <c r="BI29" s="14"/>
       <c r="BJ29" s="20"/>
-      <c r="BK29" s="159"/>
-      <c r="BL29" s="159"/>
-      <c r="BM29" s="159"/>
-      <c r="BN29" s="171"/>
+      <c r="BK29" s="69"/>
+      <c r="BL29" s="69"/>
+      <c r="BM29" s="69"/>
+      <c r="BN29" s="81"/>
     </row>
     <row r="30" spans="1:66">
       <c r="Z30" s="5"/>
@@ -5216,13 +5254,51 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -5231,6 +5307,1221 @@
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="80" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AD32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="10.5" customHeight="1">
+      <c r="A1" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="116"/>
+      <c r="E1" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="124" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="107"/>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="108"/>
+    </row>
+    <row r="2" spans="1:30" ht="10.5" customHeight="1">
+      <c r="A2" s="110"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="46">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4">
+        <v>3</v>
+      </c>
+      <c r="T2" s="4">
+        <v>4</v>
+      </c>
+      <c r="U2" s="4">
+        <v>5</v>
+      </c>
+      <c r="V2" s="4">
+        <v>6</v>
+      </c>
+      <c r="W2" s="4">
+        <v>7</v>
+      </c>
+      <c r="X2" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A3" s="111"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A4" s="137">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="139"/>
+      <c r="E4" s="142" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="144"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="193" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A5" s="128"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="194"/>
+      <c r="AD5" s="191"/>
+    </row>
+    <row r="6" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A6" s="127">
+        <v>2</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="130"/>
+      <c r="E6" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="135"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="191"/>
+    </row>
+    <row r="7" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A7" s="128"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="194"/>
+      <c r="AD7" s="191"/>
+    </row>
+    <row r="8" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A8" s="146">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="148" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="149"/>
+      <c r="E8" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="154"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="194"/>
+      <c r="AD8" s="191"/>
+    </row>
+    <row r="9" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A9" s="147"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="194"/>
+      <c r="AD9" s="191"/>
+    </row>
+    <row r="10" spans="1:30" ht="12" customHeight="1">
+      <c r="A10" s="156">
+        <v>4</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="157" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="158"/>
+      <c r="E10" s="161" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="163"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="191"/>
+    </row>
+    <row r="11" spans="1:30" ht="12" customHeight="1">
+      <c r="A11" s="147"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="191"/>
+    </row>
+    <row r="12" spans="1:30" ht="12" customHeight="1">
+      <c r="A12" s="146">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="129" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="130"/>
+      <c r="E12" s="167" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="168"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="191"/>
+    </row>
+    <row r="13" spans="1:30" ht="12" customHeight="1">
+      <c r="A13" s="156"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="194"/>
+      <c r="AD13" s="191"/>
+    </row>
+    <row r="14" spans="1:30" ht="12" customHeight="1">
+      <c r="A14" s="169">
+        <v>6</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="171"/>
+      <c r="E14" s="172" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="154"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="194"/>
+      <c r="AD14" s="191"/>
+    </row>
+    <row r="15" spans="1:30" ht="12" customHeight="1">
+      <c r="A15" s="169"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="191"/>
+    </row>
+    <row r="16" spans="1:30" ht="12" customHeight="1">
+      <c r="A16" s="169">
+        <v>7</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="130"/>
+      <c r="E16" s="173" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="168"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="191"/>
+    </row>
+    <row r="17" spans="1:30" ht="12" customHeight="1">
+      <c r="A17" s="169"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="194"/>
+      <c r="AD17" s="191"/>
+    </row>
+    <row r="18" spans="1:30" ht="12" customHeight="1">
+      <c r="A18" s="169">
+        <v>8</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="130"/>
+      <c r="E18" s="173" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="168"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="191"/>
+    </row>
+    <row r="19" spans="1:30" ht="12" customHeight="1">
+      <c r="A19" s="169"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="194"/>
+      <c r="AD19" s="191"/>
+    </row>
+    <row r="20" spans="1:30" ht="12" customHeight="1">
+      <c r="A20" s="146">
+        <v>9</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="170" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="171"/>
+      <c r="E20" s="172" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="154"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="194"/>
+      <c r="AD20" s="191"/>
+    </row>
+    <row r="21" spans="1:30" ht="12" customHeight="1">
+      <c r="A21" s="147"/>
+      <c r="B21" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="194"/>
+      <c r="AD21" s="191"/>
+    </row>
+    <row r="22" spans="1:30" ht="12" customHeight="1">
+      <c r="A22" s="146">
+        <v>10</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="130"/>
+      <c r="E22" s="173" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="168"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="194"/>
+      <c r="AD22" s="191"/>
+    </row>
+    <row r="23" spans="1:30" ht="12" customHeight="1">
+      <c r="A23" s="147"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="194"/>
+      <c r="AD23" s="191"/>
+    </row>
+    <row r="24" spans="1:30" ht="12" customHeight="1">
+      <c r="A24" s="146">
+        <v>11</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="130"/>
+      <c r="E24" s="173" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="168"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="194"/>
+      <c r="AD24" s="191"/>
+    </row>
+    <row r="25" spans="1:30" ht="12" customHeight="1">
+      <c r="A25" s="147"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="194"/>
+      <c r="AD25" s="191"/>
+    </row>
+    <row r="26" spans="1:30" ht="12" customHeight="1">
+      <c r="A26" s="127">
+        <v>12</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="175" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="176"/>
+      <c r="E26" s="179" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="181"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="194"/>
+      <c r="AD26" s="191"/>
+    </row>
+    <row r="27" spans="1:30" ht="12" customHeight="1">
+      <c r="A27" s="128"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="178"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="194"/>
+      <c r="AD27" s="191"/>
+    </row>
+    <row r="28" spans="1:30" ht="12" customHeight="1">
+      <c r="A28" s="127">
+        <v>14</v>
+      </c>
+      <c r="B28" s="184" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="170" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="171"/>
+      <c r="E28" s="184" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="188"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="194"/>
+      <c r="AD28" s="191"/>
+    </row>
+    <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
+      <c r="A29" s="183"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="187"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="195"/>
+      <c r="AD29" s="192"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="27"/>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="28"/>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="AD4:AD29"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AC4:AC29"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -5290,1257 +6581,4 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AD32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.125" style="3" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="77"/>
-      <c r="E1" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-      <c r="W1" s="62"/>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="62"/>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
-    </row>
-    <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="71"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="46">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4">
-        <v>28</v>
-      </c>
-      <c r="N2" s="4">
-        <v>29</v>
-      </c>
-      <c r="O2" s="4">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4">
-        <v>2</v>
-      </c>
-      <c r="S2" s="4">
-        <v>3</v>
-      </c>
-      <c r="T2" s="4">
-        <v>4</v>
-      </c>
-      <c r="U2" s="4">
-        <v>5</v>
-      </c>
-      <c r="V2" s="4">
-        <v>6</v>
-      </c>
-      <c r="W2" s="4">
-        <v>7</v>
-      </c>
-      <c r="X2" s="4">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="90">
-        <v>1</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD4" s="67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="91"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="68"/>
-    </row>
-    <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="108">
-        <v>2</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="113" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="68"/>
-    </row>
-    <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="65"/>
-      <c r="AD7" s="68"/>
-    </row>
-    <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="117">
-        <v>3</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="118" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="119"/>
-      <c r="E8" s="122" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="124"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="68"/>
-    </row>
-    <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="68"/>
-    </row>
-    <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="88">
-        <v>4</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="68"/>
-    </row>
-    <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="89"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="68"/>
-    </row>
-    <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="117">
-        <v>5</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="109" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="128" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="129"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="68"/>
-    </row>
-    <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="68"/>
-    </row>
-    <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="130">
-        <v>6</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="68"/>
-    </row>
-    <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="130"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="65"/>
-      <c r="AD15" s="68"/>
-    </row>
-    <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="130">
-        <v>7</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="134" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="129"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="65"/>
-      <c r="AD16" s="68"/>
-    </row>
-    <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="130"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="68"/>
-    </row>
-    <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="130">
-        <v>8</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="134" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="129"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="68"/>
-    </row>
-    <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="130"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="65"/>
-      <c r="AD19" s="68"/>
-    </row>
-    <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="117">
-        <v>9</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="124"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="68"/>
-    </row>
-    <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="89"/>
-      <c r="B21" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="65"/>
-      <c r="AD21" s="68"/>
-    </row>
-    <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="117">
-        <v>10</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="143" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="110"/>
-      <c r="E22" s="134" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="129"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="65"/>
-      <c r="AD22" s="68"/>
-    </row>
-    <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="89"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="65"/>
-      <c r="AD23" s="68"/>
-    </row>
-    <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="117">
-        <v>11</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="143" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="110"/>
-      <c r="E24" s="134" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="129"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="65"/>
-      <c r="AD24" s="68"/>
-    </row>
-    <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="89"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="65"/>
-      <c r="AD25" s="68"/>
-    </row>
-    <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="108">
-        <v>12</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="135" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="139" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="141"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="68"/>
-    </row>
-    <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="91"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="65"/>
-      <c r="AD27" s="68"/>
-    </row>
-    <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="108">
-        <v>14</v>
-      </c>
-      <c r="B28" s="145" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="149"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="68"/>
-    </row>
-    <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="144"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="148"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="69"/>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="27"/>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="28"/>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="AD4:AD29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="AC4:AC29"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="30" max="80" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/システム開発演習/000-要件定義/003-WBS.xlsx
+++ b/システム開発演習/000-要件定義/003-WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB975FA-56BF-4828-A46D-678DBF56BA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B7A334-65BC-4E5B-98E7-ECA5CBD55741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="588" yWindow="2988" windowWidth="22452" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -1578,7 +1578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1889,6 +1889,195 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1952,195 +2141,6 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2158,6 +2158,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2867,7 +2870,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2884,94 +2887,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="115" t="s">
+      <c r="C1" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="121" t="s">
+      <c r="D1" s="179"/>
+      <c r="E1" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="106">
+      <c r="G1" s="169">
         <v>45536</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="106">
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="170"/>
+      <c r="AD1" s="170"/>
+      <c r="AE1" s="170"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="170"/>
+      <c r="AH1" s="170"/>
+      <c r="AI1" s="170"/>
+      <c r="AJ1" s="171"/>
+      <c r="AK1" s="169">
         <v>45566</v>
       </c>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="107"/>
-      <c r="AT1" s="107"/>
-      <c r="AU1" s="107"/>
-      <c r="AV1" s="107"/>
-      <c r="AW1" s="107"/>
-      <c r="AX1" s="107"/>
-      <c r="AY1" s="107"/>
-      <c r="AZ1" s="107"/>
-      <c r="BA1" s="107"/>
-      <c r="BB1" s="107"/>
-      <c r="BC1" s="107"/>
-      <c r="BD1" s="107"/>
-      <c r="BE1" s="107"/>
-      <c r="BF1" s="107"/>
-      <c r="BG1" s="107"/>
-      <c r="BH1" s="107"/>
-      <c r="BI1" s="107"/>
-      <c r="BJ1" s="107"/>
-      <c r="BK1" s="107"/>
-      <c r="BL1" s="107"/>
-      <c r="BM1" s="107"/>
-      <c r="BN1" s="108"/>
+      <c r="AL1" s="170"/>
+      <c r="AM1" s="170"/>
+      <c r="AN1" s="170"/>
+      <c r="AO1" s="170"/>
+      <c r="AP1" s="170"/>
+      <c r="AQ1" s="170"/>
+      <c r="AR1" s="170"/>
+      <c r="AS1" s="170"/>
+      <c r="AT1" s="170"/>
+      <c r="AU1" s="170"/>
+      <c r="AV1" s="170"/>
+      <c r="AW1" s="170"/>
+      <c r="AX1" s="170"/>
+      <c r="AY1" s="170"/>
+      <c r="AZ1" s="170"/>
+      <c r="BA1" s="170"/>
+      <c r="BB1" s="170"/>
+      <c r="BC1" s="170"/>
+      <c r="BD1" s="170"/>
+      <c r="BE1" s="170"/>
+      <c r="BF1" s="170"/>
+      <c r="BG1" s="170"/>
+      <c r="BH1" s="170"/>
+      <c r="BI1" s="170"/>
+      <c r="BJ1" s="170"/>
+      <c r="BK1" s="170"/>
+      <c r="BL1" s="170"/>
+      <c r="BM1" s="170"/>
+      <c r="BN1" s="171"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="125"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3213,12 +3216,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="126"/>
+      <c r="A3" s="174"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="189"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3401,18 +3404,18 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="137">
+      <c r="A4" s="162">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="144"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="167"/>
       <c r="G4" s="95"/>
       <c r="H4" s="29"/>
       <c r="I4" s="96"/>
@@ -3475,12 +3478,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="128"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="145"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="97"/>
       <c r="H5" s="31"/>
       <c r="I5" s="98"/>
@@ -3543,16 +3546,16 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="127">
+      <c r="A6" s="106">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="135"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="160"/>
       <c r="G6" s="51"/>
       <c r="H6" s="63"/>
       <c r="I6" s="30"/>
@@ -3615,12 +3618,12 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="128"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="136"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="161"/>
       <c r="G7" s="52"/>
       <c r="H7" s="64"/>
       <c r="I7" s="32"/>
@@ -3683,18 +3686,18 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="146">
+      <c r="A8" s="116">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="148" t="s">
+      <c r="C8" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="149"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="154"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="136"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -3757,17 +3760,17 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="147"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="155"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="125"/>
       <c r="G9" s="53"/>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
       <c r="L9" s="44"/>
       <c r="M9" s="45"/>
       <c r="N9" s="64"/>
@@ -3825,18 +3828,18 @@
       <c r="BN9" s="76"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="156">
+      <c r="A10" s="143">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="163"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
       <c r="G10" s="50"/>
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
@@ -3899,12 +3902,12 @@
       <c r="BN10" s="72"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="147"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="164"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="137"/>
       <c r="G11" s="50"/>
       <c r="H11" s="62"/>
       <c r="I11" s="62"/>
@@ -3967,16 +3970,16 @@
       <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="146">
+      <c r="A12" s="116">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="129" t="s">
+      <c r="C12" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="168"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="124"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4039,12 +4042,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="156"/>
+      <c r="A13" s="143"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="163"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
       <c r="G13" s="52"/>
       <c r="H13" s="64"/>
       <c r="I13" s="64"/>
@@ -4107,18 +4110,18 @@
       <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="169">
+      <c r="A14" s="138">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="154"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="38"/>
       <c r="H14" s="65"/>
       <c r="I14" s="65"/>
@@ -4181,12 +4184,12 @@
       <c r="BN14" s="75"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="169"/>
+      <c r="A15" s="138"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="164"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="137"/>
       <c r="G15" s="52"/>
       <c r="H15" s="64"/>
       <c r="I15" s="64"/>
@@ -4249,16 +4252,16 @@
       <c r="BN15" s="74"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="169">
+      <c r="A16" s="138">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="129" t="s">
+      <c r="C16" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="168"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4321,12 +4324,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="169"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="164"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="137"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4389,16 +4392,16 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="169">
+      <c r="A18" s="138">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="168"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="124"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4461,12 +4464,12 @@
       <c r="BN18" s="77"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="169"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="155"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="125"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4529,18 +4532,18 @@
       <c r="BN19" s="78"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="146">
+      <c r="A20" s="116">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="170" t="s">
+      <c r="C20" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="154"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="136"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4603,14 +4606,14 @@
       <c r="BN20" s="79"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="147"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="164"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="137"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4673,16 +4676,16 @@
       <c r="BN21" s="80"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="146">
+      <c r="A22" s="116">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="174" t="s">
+      <c r="C22" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="168"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="124"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4745,12 +4748,12 @@
       <c r="BN22" s="80"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="147"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="164"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="137"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4813,16 +4816,16 @@
       <c r="BN23" s="80"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="146">
+      <c r="A24" s="116">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="168"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="124"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4885,12 +4888,12 @@
       <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="147"/>
+      <c r="A25" s="117"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="155"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="125"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -4953,18 +4956,18 @@
       <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="127">
+      <c r="A26" s="106">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="175" t="s">
+      <c r="C26" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="176"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="181"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="133"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -5027,12 +5030,12 @@
       <c r="BN26" s="79"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="128"/>
+      <c r="A27" s="126"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="182"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="134"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5095,18 +5098,18 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="127">
+      <c r="A28" s="106">
         <v>14</v>
       </c>
-      <c r="B28" s="184" t="s">
+      <c r="B28" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="170" t="s">
+      <c r="C28" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="171"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="188"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="114"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -5169,12 +5172,12 @@
       <c r="BN28" s="79"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="183"/>
-      <c r="B29" s="185"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="189"/>
+      <c r="A29" s="107"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="115"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -5254,51 +5257,13 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -5307,1221 +5272,6 @@
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="30" max="80" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AD32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="115" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="108"/>
-    </row>
-    <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="110"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="46">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4">
-        <v>28</v>
-      </c>
-      <c r="N2" s="4">
-        <v>29</v>
-      </c>
-      <c r="O2" s="4">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4">
-        <v>2</v>
-      </c>
-      <c r="S2" s="4">
-        <v>3</v>
-      </c>
-      <c r="T2" s="4">
-        <v>4</v>
-      </c>
-      <c r="U2" s="4">
-        <v>5</v>
-      </c>
-      <c r="V2" s="4">
-        <v>6</v>
-      </c>
-      <c r="W2" s="4">
-        <v>7</v>
-      </c>
-      <c r="X2" s="4">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="111"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="137">
-        <v>1</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="138" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="142" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="144"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="193" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD4" s="190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="128"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="194"/>
-      <c r="AD5" s="191"/>
-    </row>
-    <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="127">
-        <v>2</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="129" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="133" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="135"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="194"/>
-      <c r="AD6" s="191"/>
-    </row>
-    <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="128"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="194"/>
-      <c r="AD7" s="191"/>
-    </row>
-    <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="146">
-        <v>3</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="148" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="149"/>
-      <c r="E8" s="152" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="154"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="194"/>
-      <c r="AD8" s="191"/>
-    </row>
-    <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="147"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="194"/>
-      <c r="AD9" s="191"/>
-    </row>
-    <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="156">
-        <v>4</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="157" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="161" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="163"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="194"/>
-      <c r="AD10" s="191"/>
-    </row>
-    <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="147"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="194"/>
-      <c r="AD11" s="191"/>
-    </row>
-    <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="146">
-        <v>5</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="129" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="167" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="168"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="191"/>
-    </row>
-    <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="156"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="194"/>
-      <c r="AD13" s="191"/>
-    </row>
-    <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="169">
-        <v>6</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="170" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="171"/>
-      <c r="E14" s="172" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="154"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="194"/>
-      <c r="AD14" s="191"/>
-    </row>
-    <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="169"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="194"/>
-      <c r="AD15" s="191"/>
-    </row>
-    <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="169">
-        <v>7</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="173" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="168"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="194"/>
-      <c r="AD16" s="191"/>
-    </row>
-    <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="169"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="194"/>
-      <c r="AD17" s="191"/>
-    </row>
-    <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="169">
-        <v>8</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="129" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="173" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="168"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="194"/>
-      <c r="AD18" s="191"/>
-    </row>
-    <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="169"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="194"/>
-      <c r="AD19" s="191"/>
-    </row>
-    <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="146">
-        <v>9</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="170" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="154"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="194"/>
-      <c r="AD20" s="191"/>
-    </row>
-    <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="147"/>
-      <c r="B21" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="194"/>
-      <c r="AD21" s="191"/>
-    </row>
-    <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="146">
-        <v>10</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="173" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="168"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="194"/>
-      <c r="AD22" s="191"/>
-    </row>
-    <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="147"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="194"/>
-      <c r="AD23" s="191"/>
-    </row>
-    <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="146">
-        <v>11</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="174" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="173" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="168"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="194"/>
-      <c r="AD24" s="191"/>
-    </row>
-    <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="147"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="162"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="194"/>
-      <c r="AD25" s="191"/>
-    </row>
-    <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="127">
-        <v>12</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="175" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="176"/>
-      <c r="E26" s="179" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="181"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="194"/>
-      <c r="AD26" s="191"/>
-    </row>
-    <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="128"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="194"/>
-      <c r="AD27" s="191"/>
-    </row>
-    <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="127">
-        <v>14</v>
-      </c>
-      <c r="B28" s="184" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="170" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="171"/>
-      <c r="E28" s="184" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="188"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="194"/>
-      <c r="AD28" s="191"/>
-    </row>
-    <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="183"/>
-      <c r="B29" s="185"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="185"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="195"/>
-      <c r="AD29" s="192"/>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="27"/>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="28"/>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="AD4:AD29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="AC4:AC29"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -6581,4 +5331,1257 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AD32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="10.5" customHeight="1">
+      <c r="A1" s="172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="175" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="179"/>
+      <c r="E1" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="169"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="170"/>
+      <c r="M1" s="170"/>
+      <c r="N1" s="170"/>
+      <c r="O1" s="170"/>
+      <c r="P1" s="170"/>
+      <c r="Q1" s="170"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="170"/>
+      <c r="T1" s="170"/>
+      <c r="U1" s="170"/>
+      <c r="V1" s="170"/>
+      <c r="W1" s="170"/>
+      <c r="X1" s="170"/>
+      <c r="Y1" s="170"/>
+      <c r="Z1" s="170"/>
+      <c r="AA1" s="170"/>
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="170"/>
+      <c r="AD1" s="171"/>
+    </row>
+    <row r="2" spans="1:30" ht="10.5" customHeight="1">
+      <c r="A2" s="173"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="46">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4">
+        <v>3</v>
+      </c>
+      <c r="T2" s="4">
+        <v>4</v>
+      </c>
+      <c r="U2" s="4">
+        <v>5</v>
+      </c>
+      <c r="V2" s="4">
+        <v>6</v>
+      </c>
+      <c r="W2" s="4">
+        <v>7</v>
+      </c>
+      <c r="X2" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A3" s="174"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A4" s="162">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="164"/>
+      <c r="E4" s="165" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="167"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="193" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A5" s="126"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="194"/>
+      <c r="AD5" s="191"/>
+    </row>
+    <row r="6" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A6" s="106">
+        <v>2</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="158" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="160"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="191"/>
+    </row>
+    <row r="7" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A7" s="126"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="194"/>
+      <c r="AD7" s="191"/>
+    </row>
+    <row r="8" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A8" s="116">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="150"/>
+      <c r="E8" s="153" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="136"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="194"/>
+      <c r="AD8" s="191"/>
+    </row>
+    <row r="9" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A9" s="117"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="194"/>
+      <c r="AD9" s="191"/>
+    </row>
+    <row r="10" spans="1:30" ht="12" customHeight="1">
+      <c r="A10" s="143">
+        <v>4</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="154" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="155"/>
+      <c r="E10" s="147" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="148"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="191"/>
+    </row>
+    <row r="11" spans="1:30" ht="12" customHeight="1">
+      <c r="A11" s="117"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="194"/>
+      <c r="AD11" s="191"/>
+    </row>
+    <row r="12" spans="1:30" ht="12" customHeight="1">
+      <c r="A12" s="116">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="139" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="119"/>
+      <c r="E12" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="124"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="191"/>
+    </row>
+    <row r="13" spans="1:30" ht="12" customHeight="1">
+      <c r="A13" s="143"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="194"/>
+      <c r="AD13" s="191"/>
+    </row>
+    <row r="14" spans="1:30" ht="12" customHeight="1">
+      <c r="A14" s="138">
+        <v>6</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="111"/>
+      <c r="E14" s="135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="136"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="194"/>
+      <c r="AD14" s="191"/>
+    </row>
+    <row r="15" spans="1:30" ht="12" customHeight="1">
+      <c r="A15" s="138"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="194"/>
+      <c r="AD15" s="191"/>
+    </row>
+    <row r="16" spans="1:30" ht="12" customHeight="1">
+      <c r="A16" s="138">
+        <v>7</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="139" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="119"/>
+      <c r="E16" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="124"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="194"/>
+      <c r="AD16" s="191"/>
+    </row>
+    <row r="17" spans="1:30" ht="12" customHeight="1">
+      <c r="A17" s="138"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="194"/>
+      <c r="AD17" s="191"/>
+    </row>
+    <row r="18" spans="1:30" ht="12" customHeight="1">
+      <c r="A18" s="138">
+        <v>8</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="119"/>
+      <c r="E18" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="124"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="194"/>
+      <c r="AD18" s="191"/>
+    </row>
+    <row r="19" spans="1:30" ht="12" customHeight="1">
+      <c r="A19" s="138"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="194"/>
+      <c r="AD19" s="191"/>
+    </row>
+    <row r="20" spans="1:30" ht="12" customHeight="1">
+      <c r="A20" s="116">
+        <v>9</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="111"/>
+      <c r="E20" s="135" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="136"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="194"/>
+      <c r="AD20" s="191"/>
+    </row>
+    <row r="21" spans="1:30" ht="12" customHeight="1">
+      <c r="A21" s="117"/>
+      <c r="B21" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="120"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="194"/>
+      <c r="AD21" s="191"/>
+    </row>
+    <row r="22" spans="1:30" ht="12" customHeight="1">
+      <c r="A22" s="116">
+        <v>10</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="119"/>
+      <c r="E22" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="124"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="194"/>
+      <c r="AD22" s="191"/>
+    </row>
+    <row r="23" spans="1:30" ht="12" customHeight="1">
+      <c r="A23" s="117"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="194"/>
+      <c r="AD23" s="191"/>
+    </row>
+    <row r="24" spans="1:30" ht="12" customHeight="1">
+      <c r="A24" s="116">
+        <v>11</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="119"/>
+      <c r="E24" s="122" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="124"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="194"/>
+      <c r="AD24" s="191"/>
+    </row>
+    <row r="25" spans="1:30" ht="12" customHeight="1">
+      <c r="A25" s="117"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="194"/>
+      <c r="AD25" s="191"/>
+    </row>
+    <row r="26" spans="1:30" ht="12" customHeight="1">
+      <c r="A26" s="106">
+        <v>12</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="127" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="128"/>
+      <c r="E26" s="131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="133"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="194"/>
+      <c r="AD26" s="191"/>
+    </row>
+    <row r="27" spans="1:30" ht="12" customHeight="1">
+      <c r="A27" s="126"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="194"/>
+      <c r="AD27" s="191"/>
+    </row>
+    <row r="28" spans="1:30" ht="12" customHeight="1">
+      <c r="A28" s="106">
+        <v>14</v>
+      </c>
+      <c r="B28" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="111"/>
+      <c r="E28" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="114"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="194"/>
+      <c r="AD28" s="191"/>
+    </row>
+    <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
+      <c r="A29" s="107"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="109"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="195"/>
+      <c r="AD29" s="192"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="27"/>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="28"/>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="AD4:AD29"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AC4:AC29"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="80" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/システム開発演習/000-要件定義/003-WBS.xlsx
+++ b/システム開発演習/000-要件定義/003-WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B7A334-65BC-4E5B-98E7-ECA5CBD55741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3613A8-3DF7-4FF1-8356-ACAC7953F66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="588" yWindow="2988" windowWidth="22452" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="46">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -462,6 +462,13 @@
       <t>ヨウケンテイギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙木</t>
+    <rPh sb="0" eb="2">
+      <t>タカギ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1889,9 +1896,240 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1901,12 +2139,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1919,228 +2151,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2158,9 +2168,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2870,7 +2877,7 @@
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2887,94 +2894,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="179"/>
-      <c r="E1" s="184" t="s">
+      <c r="D1" s="117"/>
+      <c r="E1" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="187" t="s">
+      <c r="F1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="169">
+      <c r="G1" s="107">
         <v>45536</v>
       </c>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
-      <c r="AD1" s="170"/>
-      <c r="AE1" s="170"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="170"/>
-      <c r="AH1" s="170"/>
-      <c r="AI1" s="170"/>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="169">
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="107">
         <v>45566</v>
       </c>
-      <c r="AL1" s="170"/>
-      <c r="AM1" s="170"/>
-      <c r="AN1" s="170"/>
-      <c r="AO1" s="170"/>
-      <c r="AP1" s="170"/>
-      <c r="AQ1" s="170"/>
-      <c r="AR1" s="170"/>
-      <c r="AS1" s="170"/>
-      <c r="AT1" s="170"/>
-      <c r="AU1" s="170"/>
-      <c r="AV1" s="170"/>
-      <c r="AW1" s="170"/>
-      <c r="AX1" s="170"/>
-      <c r="AY1" s="170"/>
-      <c r="AZ1" s="170"/>
-      <c r="BA1" s="170"/>
-      <c r="BB1" s="170"/>
-      <c r="BC1" s="170"/>
-      <c r="BD1" s="170"/>
-      <c r="BE1" s="170"/>
-      <c r="BF1" s="170"/>
-      <c r="BG1" s="170"/>
-      <c r="BH1" s="170"/>
-      <c r="BI1" s="170"/>
-      <c r="BJ1" s="170"/>
-      <c r="BK1" s="170"/>
-      <c r="BL1" s="170"/>
-      <c r="BM1" s="170"/>
-      <c r="BN1" s="171"/>
+      <c r="AL1" s="108"/>
+      <c r="AM1" s="108"/>
+      <c r="AN1" s="108"/>
+      <c r="AO1" s="108"/>
+      <c r="AP1" s="108"/>
+      <c r="AQ1" s="108"/>
+      <c r="AR1" s="108"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108"/>
+      <c r="AY1" s="108"/>
+      <c r="AZ1" s="108"/>
+      <c r="BA1" s="108"/>
+      <c r="BB1" s="108"/>
+      <c r="BC1" s="108"/>
+      <c r="BD1" s="108"/>
+      <c r="BE1" s="108"/>
+      <c r="BF1" s="108"/>
+      <c r="BG1" s="108"/>
+      <c r="BH1" s="108"/>
+      <c r="BI1" s="108"/>
+      <c r="BJ1" s="108"/>
+      <c r="BK1" s="108"/>
+      <c r="BL1" s="108"/>
+      <c r="BM1" s="108"/>
+      <c r="BN1" s="109"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="173"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="188"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="126"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3216,12 +3223,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="174"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="189"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="127"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3404,18 +3411,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="162">
+      <c r="A4" s="138">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="163" t="s">
+      <c r="C4" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="164"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="167"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="143" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="145"/>
       <c r="G4" s="95"/>
       <c r="H4" s="29"/>
       <c r="I4" s="96"/>
@@ -3478,12 +3487,12 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="126"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="168"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="146"/>
       <c r="G5" s="97"/>
       <c r="H5" s="31"/>
       <c r="I5" s="98"/>
@@ -3546,16 +3555,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="106">
+      <c r="A6" s="128">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="160"/>
+      <c r="D6" s="131"/>
+      <c r="E6" s="134" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="136"/>
       <c r="G6" s="51"/>
       <c r="H6" s="63"/>
       <c r="I6" s="30"/>
@@ -3618,12 +3629,12 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="126"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="161"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="137"/>
       <c r="G7" s="52"/>
       <c r="H7" s="64"/>
       <c r="I7" s="32"/>
@@ -3686,7 +3697,7 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="116">
+      <c r="A8" s="147">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
@@ -3696,8 +3707,10 @@
         <v>29</v>
       </c>
       <c r="D8" s="150"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="136"/>
+      <c r="E8" s="153" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="155"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
@@ -3760,17 +3773,17 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="117"/>
+      <c r="A9" s="148"/>
       <c r="B9" s="37"/>
       <c r="C9" s="151"/>
       <c r="D9" s="152"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="125"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="156"/>
       <c r="G9" s="53"/>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="196"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
       <c r="L9" s="44"/>
       <c r="M9" s="45"/>
       <c r="N9" s="64"/>
@@ -3828,18 +3841,20 @@
       <c r="BN9" s="76"/>
     </row>
     <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="143">
+      <c r="A10" s="157">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="162" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="164"/>
       <c r="G10" s="50"/>
       <c r="H10" s="62"/>
       <c r="I10" s="62"/>
@@ -3902,12 +3917,12 @@
       <c r="BN10" s="72"/>
     </row>
     <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="117"/>
+      <c r="A11" s="148"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="137"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="165"/>
       <c r="G11" s="50"/>
       <c r="H11" s="62"/>
       <c r="I11" s="62"/>
@@ -3970,16 +3985,18 @@
       <c r="BN11" s="72"/>
     </row>
     <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="116">
+      <c r="A12" s="147">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="139" t="s">
+      <c r="C12" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="124"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="168" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="169"/>
       <c r="G12" s="51"/>
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
@@ -4042,12 +4059,12 @@
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="143"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="164"/>
       <c r="G13" s="52"/>
       <c r="H13" s="64"/>
       <c r="I13" s="64"/>
@@ -4110,18 +4127,20 @@
       <c r="BN13" s="74"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="138">
+      <c r="A14" s="170">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="136"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="173" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="155"/>
       <c r="G14" s="38"/>
       <c r="H14" s="65"/>
       <c r="I14" s="65"/>
@@ -4184,12 +4203,12 @@
       <c r="BN14" s="75"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="138"/>
+      <c r="A15" s="170"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="137"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="165"/>
       <c r="G15" s="52"/>
       <c r="H15" s="64"/>
       <c r="I15" s="64"/>
@@ -4252,16 +4271,18 @@
       <c r="BN15" s="74"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="138">
+      <c r="A16" s="170">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="139" t="s">
+      <c r="C16" s="130" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="124"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="174" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="169"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -4324,12 +4345,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="138"/>
+      <c r="A17" s="170"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="137"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="165"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4392,16 +4413,18 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="138">
+      <c r="A18" s="170">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="124"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="174" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="169"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -4464,12 +4487,12 @@
       <c r="BN18" s="77"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="138"/>
+      <c r="A19" s="170"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="125"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="156"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -4532,18 +4555,20 @@
       <c r="BN19" s="78"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="116">
+      <c r="A20" s="147">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="110" t="s">
+      <c r="C20" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="136"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="173" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="155"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -4606,14 +4631,14 @@
       <c r="BN20" s="79"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="117"/>
+      <c r="A21" s="148"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="137"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="165"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -4676,16 +4701,18 @@
       <c r="BN21" s="80"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="116">
+      <c r="A22" s="147">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="124"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="174" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="169"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -4748,12 +4775,12 @@
       <c r="BN22" s="80"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="117"/>
+      <c r="A23" s="148"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="137"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="165"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -4816,16 +4843,18 @@
       <c r="BN23" s="80"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="116">
+      <c r="A24" s="147">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="124"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="174" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="169"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -4888,12 +4917,12 @@
       <c r="BN24" s="77"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="117"/>
+      <c r="A25" s="148"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="125"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="156"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -4956,18 +4985,20 @@
       <c r="BN25" s="78"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="106">
+      <c r="A26" s="128">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="133"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="180" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="182"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -5030,12 +5061,12 @@
       <c r="BN26" s="79"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="126"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="134"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="183"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5098,18 +5129,20 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="106">
+      <c r="A28" s="128">
         <v>14</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="114"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="185" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="189"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -5172,12 +5205,12 @@
       <c r="BN28" s="79"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="107"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="115"/>
+      <c r="A29" s="184"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="190"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -5257,13 +5290,51 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -5272,6 +5343,1221 @@
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions gridLinesSet="0"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="30" max="80" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AD32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
+    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="10.5" customHeight="1">
+      <c r="A1" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="117"/>
+      <c r="E1" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="109"/>
+    </row>
+    <row r="2" spans="1:30" ht="10.5" customHeight="1">
+      <c r="A2" s="111"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="46">
+        <v>22</v>
+      </c>
+      <c r="H2" s="4">
+        <v>23</v>
+      </c>
+      <c r="I2" s="4">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4">
+        <v>27</v>
+      </c>
+      <c r="M2" s="4">
+        <v>28</v>
+      </c>
+      <c r="N2" s="4">
+        <v>29</v>
+      </c>
+      <c r="O2" s="4">
+        <v>30</v>
+      </c>
+      <c r="P2" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4">
+        <v>3</v>
+      </c>
+      <c r="T2" s="4">
+        <v>4</v>
+      </c>
+      <c r="U2" s="4">
+        <v>5</v>
+      </c>
+      <c r="V2" s="4">
+        <v>6</v>
+      </c>
+      <c r="W2" s="4">
+        <v>7</v>
+      </c>
+      <c r="X2" s="4">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>9</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>13</v>
+      </c>
+      <c r="AD2" s="47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
+      <c r="A3" s="112"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="V3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A4" s="138">
+        <v>1</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="139" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="140"/>
+      <c r="E4" s="143" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="145"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="194" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="195"/>
+      <c r="AD5" s="192"/>
+    </row>
+    <row r="6" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A6" s="128">
+        <v>2</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="131"/>
+      <c r="E6" s="134" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="136"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="195"/>
+      <c r="AD6" s="192"/>
+    </row>
+    <row r="7" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A7" s="129"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="195"/>
+      <c r="AD7" s="192"/>
+    </row>
+    <row r="8" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A8" s="147">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="150"/>
+      <c r="E8" s="153" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="155"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="195"/>
+      <c r="AD8" s="192"/>
+    </row>
+    <row r="9" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A9" s="148"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="195"/>
+      <c r="AD9" s="192"/>
+    </row>
+    <row r="10" spans="1:30" ht="12" customHeight="1">
+      <c r="A10" s="157">
+        <v>4</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="159"/>
+      <c r="E10" s="162" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="164"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="195"/>
+      <c r="AD10" s="192"/>
+    </row>
+    <row r="11" spans="1:30" ht="12" customHeight="1">
+      <c r="A11" s="148"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="195"/>
+      <c r="AD11" s="192"/>
+    </row>
+    <row r="12" spans="1:30" ht="12" customHeight="1">
+      <c r="A12" s="147">
+        <v>5</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="130" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="131"/>
+      <c r="E12" s="168" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="169"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="195"/>
+      <c r="AD12" s="192"/>
+    </row>
+    <row r="13" spans="1:30" ht="12" customHeight="1">
+      <c r="A13" s="157"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="195"/>
+      <c r="AD13" s="192"/>
+    </row>
+    <row r="14" spans="1:30" ht="12" customHeight="1">
+      <c r="A14" s="170">
+        <v>6</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="171" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="172"/>
+      <c r="E14" s="173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="155"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="195"/>
+      <c r="AD14" s="192"/>
+    </row>
+    <row r="15" spans="1:30" ht="12" customHeight="1">
+      <c r="A15" s="170"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="195"/>
+      <c r="AD15" s="192"/>
+    </row>
+    <row r="16" spans="1:30" ht="12" customHeight="1">
+      <c r="A16" s="170">
+        <v>7</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="131"/>
+      <c r="E16" s="174" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="169"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="195"/>
+      <c r="AD16" s="192"/>
+    </row>
+    <row r="17" spans="1:30" ht="12" customHeight="1">
+      <c r="A17" s="170"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="141"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="195"/>
+      <c r="AD17" s="192"/>
+    </row>
+    <row r="18" spans="1:30" ht="12" customHeight="1">
+      <c r="A18" s="170">
+        <v>8</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="131"/>
+      <c r="E18" s="174" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="169"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="195"/>
+      <c r="AD18" s="192"/>
+    </row>
+    <row r="19" spans="1:30" ht="12" customHeight="1">
+      <c r="A19" s="170"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="195"/>
+      <c r="AD19" s="192"/>
+    </row>
+    <row r="20" spans="1:30" ht="12" customHeight="1">
+      <c r="A20" s="147">
+        <v>9</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="172"/>
+      <c r="E20" s="173" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="155"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="195"/>
+      <c r="AD20" s="192"/>
+    </row>
+    <row r="21" spans="1:30" ht="12" customHeight="1">
+      <c r="A21" s="148"/>
+      <c r="B21" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="141"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="195"/>
+      <c r="AD21" s="192"/>
+    </row>
+    <row r="22" spans="1:30" ht="12" customHeight="1">
+      <c r="A22" s="147">
+        <v>10</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="131"/>
+      <c r="E22" s="174" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="169"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="195"/>
+      <c r="AD22" s="192"/>
+    </row>
+    <row r="23" spans="1:30" ht="12" customHeight="1">
+      <c r="A23" s="148"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="195"/>
+      <c r="AD23" s="192"/>
+    </row>
+    <row r="24" spans="1:30" ht="12" customHeight="1">
+      <c r="A24" s="147">
+        <v>11</v>
+      </c>
+      <c r="B24" s="36"/>
+      <c r="C24" s="175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="131"/>
+      <c r="E24" s="174" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="169"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="195"/>
+      <c r="AD24" s="192"/>
+    </row>
+    <row r="25" spans="1:30" ht="12" customHeight="1">
+      <c r="A25" s="148"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="163"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="195"/>
+      <c r="AD25" s="192"/>
+    </row>
+    <row r="26" spans="1:30" ht="12" customHeight="1">
+      <c r="A26" s="128">
+        <v>12</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="176" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="177"/>
+      <c r="E26" s="180" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="182"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="40"/>
+      <c r="X26" s="40"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="195"/>
+      <c r="AD26" s="192"/>
+    </row>
+    <row r="27" spans="1:30" ht="12" customHeight="1">
+      <c r="A27" s="129"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="195"/>
+      <c r="AD27" s="192"/>
+    </row>
+    <row r="28" spans="1:30" ht="12" customHeight="1">
+      <c r="A28" s="128">
+        <v>14</v>
+      </c>
+      <c r="B28" s="185" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="171" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="172"/>
+      <c r="E28" s="185" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="189"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="195"/>
+      <c r="AD28" s="192"/>
+    </row>
+    <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
+      <c r="A29" s="184"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="187"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="196"/>
+      <c r="AD29" s="193"/>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="27"/>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="28"/>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="AD4:AD29"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="AC4:AC29"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -5331,1257 +6617,4 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624DF4ED-FA44-48E9-9005-27B4AB47060E}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AD32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF27" sqref="AF27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="3" customWidth="1"/>
-    <col min="7" max="30" width="3.109375" style="3" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="172" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="175" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="178" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="179"/>
-      <c r="E1" s="184" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="187" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="169"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
-      <c r="N1" s="170"/>
-      <c r="O1" s="170"/>
-      <c r="P1" s="170"/>
-      <c r="Q1" s="170"/>
-      <c r="R1" s="170"/>
-      <c r="S1" s="170"/>
-      <c r="T1" s="170"/>
-      <c r="U1" s="170"/>
-      <c r="V1" s="170"/>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
-      <c r="AD1" s="171"/>
-    </row>
-    <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="173"/>
-      <c r="B2" s="176"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="46">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4">
-        <v>25</v>
-      </c>
-      <c r="K2" s="4">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4">
-        <v>27</v>
-      </c>
-      <c r="M2" s="4">
-        <v>28</v>
-      </c>
-      <c r="N2" s="4">
-        <v>29</v>
-      </c>
-      <c r="O2" s="4">
-        <v>30</v>
-      </c>
-      <c r="P2" s="4">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1</v>
-      </c>
-      <c r="R2" s="4">
-        <v>2</v>
-      </c>
-      <c r="S2" s="4">
-        <v>3</v>
-      </c>
-      <c r="T2" s="4">
-        <v>4</v>
-      </c>
-      <c r="U2" s="4">
-        <v>5</v>
-      </c>
-      <c r="V2" s="4">
-        <v>6</v>
-      </c>
-      <c r="W2" s="4">
-        <v>7</v>
-      </c>
-      <c r="X2" s="4">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>11</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="174"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="183"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="W3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z3" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA3" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB3" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="58" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="162">
-        <v>1</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="163" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="164"/>
-      <c r="E4" s="165" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="167"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="193" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD4" s="190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="126"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="194"/>
-      <c r="AD5" s="191"/>
-    </row>
-    <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="106">
-        <v>2</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="139" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="158" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="160"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="194"/>
-      <c r="AD6" s="191"/>
-    </row>
-    <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="126"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="194"/>
-      <c r="AD7" s="191"/>
-    </row>
-    <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="116">
-        <v>3</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="149" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="153" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="136"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="194"/>
-      <c r="AD8" s="191"/>
-    </row>
-    <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="117"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="43"/>
-      <c r="AC9" s="194"/>
-      <c r="AD9" s="191"/>
-    </row>
-    <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="143">
-        <v>4</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="154" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="155"/>
-      <c r="E10" s="147" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="148"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="194"/>
-      <c r="AD10" s="191"/>
-    </row>
-    <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="117"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="194"/>
-      <c r="AD11" s="191"/>
-    </row>
-    <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="116">
-        <v>5</v>
-      </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="139" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="146" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="124"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="191"/>
-    </row>
-    <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="143"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="194"/>
-      <c r="AD13" s="191"/>
-    </row>
-    <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="138">
-        <v>6</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="110" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="135" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="136"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="194"/>
-      <c r="AD14" s="191"/>
-    </row>
-    <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="138"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="194"/>
-      <c r="AD15" s="191"/>
-    </row>
-    <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="138">
-        <v>7</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="139" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="122" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="124"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="194"/>
-      <c r="AD16" s="191"/>
-    </row>
-    <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="138"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="194"/>
-      <c r="AD17" s="191"/>
-    </row>
-    <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="138">
-        <v>8</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="122" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="124"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="194"/>
-      <c r="AD18" s="191"/>
-    </row>
-    <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="138"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="194"/>
-      <c r="AD19" s="191"/>
-    </row>
-    <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="116">
-        <v>9</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="135" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="6"/>
-      <c r="AC20" s="194"/>
-      <c r="AD20" s="191"/>
-    </row>
-    <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="117"/>
-      <c r="B21" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="120"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="194"/>
-      <c r="AD21" s="191"/>
-    </row>
-    <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="116">
-        <v>10</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="119"/>
-      <c r="E22" s="122" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="124"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="194"/>
-      <c r="AD22" s="191"/>
-    </row>
-    <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="117"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="194"/>
-      <c r="AD23" s="191"/>
-    </row>
-    <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="116">
-        <v>11</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="118" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="122" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="124"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="194"/>
-      <c r="AD24" s="191"/>
-    </row>
-    <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="117"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="194"/>
-      <c r="AD25" s="191"/>
-    </row>
-    <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="106">
-        <v>12</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="127" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="128"/>
-      <c r="E26" s="131" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="133"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="194"/>
-      <c r="AD26" s="191"/>
-    </row>
-    <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="126"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="194"/>
-      <c r="AD27" s="191"/>
-    </row>
-    <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="106">
-        <v>14</v>
-      </c>
-      <c r="B28" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="111"/>
-      <c r="E28" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="114"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="194"/>
-      <c r="AD28" s="191"/>
-    </row>
-    <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="107"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="195"/>
-      <c r="AD29" s="192"/>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="27"/>
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="28"/>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="AD4:AD29"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="AC4:AC29"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions gridLinesSet="0"/>
-  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="78" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"ＭＳ Ｐゴシック,太字"&amp;12開発スケジュール&amp;R&amp;"ＭＳ Ｐゴシック,標準"&amp;8印刷日：&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;"ＭＳ Ｐゴシック,標準"&amp;8- &amp;P -&amp;R&amp;8Copyright © 2014 *** Corporation. All Rights Reserved.</oddFooter>
-  </headerFooter>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="30" max="80" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/システム開発演習/000-要件定義/003-WBS.xlsx
+++ b/システム開発演習/000-要件定義/003-WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\システム開発演習\000-要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Disstrg\個人\戦略本部\hn.takagi\デスクトップ\DIS\2.研修\java研修\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3613A8-3DF7-4FF1-8356-ACAC7953F66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5C5E94-FFC1-4976-BA8F-E978E894B6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="588" yWindow="2988" windowWidth="22452" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体スケジュール (テンプレート)" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -464,11 +464,131 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>髙木</t>
-    <rPh sb="0" eb="2">
-      <t>タカギ</t>
-    </rPh>
+    <t>機能一覧</t>
+    <rPh sb="0" eb="4">
+      <t>キノウイチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面遷移図</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イベント定義書</t>
+  </si>
+  <si>
+    <t>髙木日向子</t>
+    <rPh sb="0" eb="5">
+      <t>タカギヒナコ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>髙木日向子</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ショッピング機能（検索部分）
+検索画面</t>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能（検索部分）
+詳細画面</t>
+    <rPh sb="9" eb="11">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能（検索部分）
+検索結果画面</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能（決算部分）
+カート画面</t>
+    <rPh sb="9" eb="11">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能（決算部分）
+購入画面</t>
+    <rPh sb="9" eb="11">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング機能（決算部分）
+会員画面</t>
+    <rPh sb="9" eb="11">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -575,7 +695,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="81">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -1581,11 +1701,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1896,8 +2040,203 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1962,195 +2301,6 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2168,6 +2318,63 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2871,13 +3078,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BN32"/>
+  <dimension ref="A1:BN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -2894,94 +3101,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="117"/>
-      <c r="E1" s="122" t="s">
+      <c r="D1" s="182"/>
+      <c r="E1" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="F1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="107">
+      <c r="G1" s="172">
         <v>45536</v>
       </c>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="107">
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="173"/>
+      <c r="AI1" s="173"/>
+      <c r="AJ1" s="174"/>
+      <c r="AK1" s="172">
         <v>45566</v>
       </c>
-      <c r="AL1" s="108"/>
-      <c r="AM1" s="108"/>
-      <c r="AN1" s="108"/>
-      <c r="AO1" s="108"/>
-      <c r="AP1" s="108"/>
-      <c r="AQ1" s="108"/>
-      <c r="AR1" s="108"/>
-      <c r="AS1" s="108"/>
-      <c r="AT1" s="108"/>
-      <c r="AU1" s="108"/>
-      <c r="AV1" s="108"/>
-      <c r="AW1" s="108"/>
-      <c r="AX1" s="108"/>
-      <c r="AY1" s="108"/>
-      <c r="AZ1" s="108"/>
-      <c r="BA1" s="108"/>
-      <c r="BB1" s="108"/>
-      <c r="BC1" s="108"/>
-      <c r="BD1" s="108"/>
-      <c r="BE1" s="108"/>
-      <c r="BF1" s="108"/>
-      <c r="BG1" s="108"/>
-      <c r="BH1" s="108"/>
-      <c r="BI1" s="108"/>
-      <c r="BJ1" s="108"/>
-      <c r="BK1" s="108"/>
-      <c r="BL1" s="108"/>
-      <c r="BM1" s="108"/>
-      <c r="BN1" s="109"/>
+      <c r="AL1" s="173"/>
+      <c r="AM1" s="173"/>
+      <c r="AN1" s="173"/>
+      <c r="AO1" s="173"/>
+      <c r="AP1" s="173"/>
+      <c r="AQ1" s="173"/>
+      <c r="AR1" s="173"/>
+      <c r="AS1" s="173"/>
+      <c r="AT1" s="173"/>
+      <c r="AU1" s="173"/>
+      <c r="AV1" s="173"/>
+      <c r="AW1" s="173"/>
+      <c r="AX1" s="173"/>
+      <c r="AY1" s="173"/>
+      <c r="AZ1" s="173"/>
+      <c r="BA1" s="173"/>
+      <c r="BB1" s="173"/>
+      <c r="BC1" s="173"/>
+      <c r="BD1" s="173"/>
+      <c r="BE1" s="173"/>
+      <c r="BF1" s="173"/>
+      <c r="BG1" s="173"/>
+      <c r="BH1" s="173"/>
+      <c r="BI1" s="173"/>
+      <c r="BJ1" s="173"/>
+      <c r="BK1" s="173"/>
+      <c r="BL1" s="173"/>
+      <c r="BM1" s="173"/>
+      <c r="BN1" s="174"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="126"/>
+      <c r="A2" s="176"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3223,12 +3430,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="112"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="127"/>
+      <c r="A3" s="177"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3411,20 +3618,20 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="138">
+      <c r="A4" s="165">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="143" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="145"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="168" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="170"/>
       <c r="G4" s="95"/>
       <c r="H4" s="29"/>
       <c r="I4" s="96"/>
@@ -3489,10 +3696,10 @@
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
       <c r="A5" s="129"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="146"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="97"/>
       <c r="H5" s="31"/>
       <c r="I5" s="98"/>
@@ -3555,23 +3762,23 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="128">
+      <c r="A6" s="109">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="134" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="136"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="161" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="163"/>
       <c r="G6" s="51"/>
       <c r="H6" s="63"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="104"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="13"/>
       <c r="M6" s="19"/>
       <c r="N6" s="63"/>
@@ -3631,15 +3838,15 @@
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
       <c r="A7" s="129"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="137"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="164"/>
       <c r="G7" s="52"/>
       <c r="H7" s="64"/>
       <c r="I7" s="32"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
       <c r="L7" s="25"/>
       <c r="M7" s="26"/>
       <c r="N7" s="64"/>
@@ -3697,25 +3904,25 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="147">
+      <c r="A8" s="119">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="149" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="153" t="s">
+      <c r="C8" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="155"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="156" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="139"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
       <c r="J8" s="65"/>
-      <c r="K8" s="40"/>
+      <c r="K8" s="99"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
       <c r="N8" s="30"/>
@@ -3773,541 +3980,535 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="148"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="44"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="43"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="44"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="43"/>
-      <c r="AS9" s="43"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="44"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="43"/>
-      <c r="AY9" s="43"/>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43"/>
-      <c r="BB9" s="44"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="43"/>
-      <c r="BE9" s="43"/>
-      <c r="BF9" s="43"/>
-      <c r="BG9" s="43"/>
-      <c r="BH9" s="43"/>
-      <c r="BI9" s="44"/>
-      <c r="BJ9" s="45"/>
-      <c r="BK9" s="43"/>
-      <c r="BL9" s="43"/>
-      <c r="BM9" s="43"/>
-      <c r="BN9" s="76"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="202"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="203"/>
+      <c r="R9" s="203"/>
+      <c r="S9" s="201"/>
+      <c r="T9" s="202"/>
+      <c r="U9" s="202"/>
+      <c r="V9" s="204"/>
+      <c r="W9" s="204"/>
+      <c r="X9" s="204"/>
+      <c r="Y9" s="204"/>
+      <c r="Z9" s="201"/>
+      <c r="AA9" s="202"/>
+      <c r="AB9" s="202"/>
+      <c r="AC9" s="204"/>
+      <c r="AD9" s="204"/>
+      <c r="AE9" s="204"/>
+      <c r="AF9" s="204"/>
+      <c r="AG9" s="201"/>
+      <c r="AH9" s="202"/>
+      <c r="AI9" s="204"/>
+      <c r="AJ9" s="205"/>
+      <c r="AK9" s="206"/>
+      <c r="AL9" s="204"/>
+      <c r="AM9" s="204"/>
+      <c r="AN9" s="201"/>
+      <c r="AO9" s="202"/>
+      <c r="AP9" s="204"/>
+      <c r="AQ9" s="204"/>
+      <c r="AR9" s="204"/>
+      <c r="AS9" s="204"/>
+      <c r="AT9" s="204"/>
+      <c r="AU9" s="201"/>
+      <c r="AV9" s="202"/>
+      <c r="AW9" s="202"/>
+      <c r="AX9" s="204"/>
+      <c r="AY9" s="204"/>
+      <c r="AZ9" s="204"/>
+      <c r="BA9" s="204"/>
+      <c r="BB9" s="201"/>
+      <c r="BC9" s="202"/>
+      <c r="BD9" s="204"/>
+      <c r="BE9" s="204"/>
+      <c r="BF9" s="204"/>
+      <c r="BG9" s="204"/>
+      <c r="BH9" s="204"/>
+      <c r="BI9" s="201"/>
+      <c r="BJ9" s="202"/>
+      <c r="BK9" s="204"/>
+      <c r="BL9" s="204"/>
+      <c r="BM9" s="204"/>
+      <c r="BN9" s="205"/>
     </row>
-    <row r="10" spans="1:66" ht="12" customHeight="1">
-      <c r="A10" s="157">
-        <v>4</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="158" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="159"/>
-      <c r="E10" s="162" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="164"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="9"/>
-      <c r="AR10" s="9"/>
-      <c r="AS10" s="9"/>
-      <c r="AT10" s="9"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-      <c r="AX10" s="9"/>
-      <c r="AY10" s="9"/>
-      <c r="AZ10" s="9"/>
-      <c r="BA10" s="9"/>
-      <c r="BB10" s="16"/>
-      <c r="BC10" s="22"/>
-      <c r="BD10" s="9"/>
-      <c r="BE10" s="9"/>
-      <c r="BF10" s="9"/>
-      <c r="BG10" s="9"/>
-      <c r="BH10" s="9"/>
-      <c r="BI10" s="16"/>
-      <c r="BJ10" s="22"/>
-      <c r="BK10" s="9"/>
-      <c r="BL10" s="9"/>
-      <c r="BM10" s="9"/>
-      <c r="BN10" s="72"/>
+    <row r="10" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A10" s="146"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="207" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="208"/>
+      <c r="E10" s="149" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="127"/>
+      <c r="G10" s="212"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="24"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+      <c r="AF10" s="24"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="26"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="24"/>
+      <c r="AS10" s="24"/>
+      <c r="AT10" s="24"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="24"/>
+      <c r="AY10" s="24"/>
+      <c r="AZ10" s="24"/>
+      <c r="BA10" s="24"/>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="26"/>
+      <c r="BD10" s="24"/>
+      <c r="BE10" s="24"/>
+      <c r="BF10" s="24"/>
+      <c r="BG10" s="24"/>
+      <c r="BH10" s="24"/>
+      <c r="BI10" s="25"/>
+      <c r="BJ10" s="26"/>
+      <c r="BK10" s="24"/>
+      <c r="BL10" s="24"/>
+      <c r="BM10" s="209"/>
+      <c r="BN10" s="73"/>
     </row>
-    <row r="11" spans="1:66" ht="12" customHeight="1">
-      <c r="A11" s="148"/>
+    <row r="11" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A11" s="146"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="22"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="22"/>
-      <c r="AW11" s="22"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="16"/>
-      <c r="BC11" s="22"/>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9"/>
-      <c r="BF11" s="9"/>
-      <c r="BG11" s="9"/>
-      <c r="BH11" s="9"/>
-      <c r="BI11" s="16"/>
-      <c r="BJ11" s="22"/>
-      <c r="BK11" s="9"/>
-      <c r="BL11" s="9"/>
-      <c r="BM11" s="9"/>
-      <c r="BN11" s="72"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="73"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="19"/>
+      <c r="AW11" s="19"/>
+      <c r="AX11" s="7"/>
+      <c r="AY11" s="7"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="211"/>
+      <c r="BB11" s="13"/>
+      <c r="BC11" s="19"/>
+      <c r="BD11" s="7"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="7"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="13"/>
+      <c r="BJ11" s="19"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="211"/>
+      <c r="BN11" s="205"/>
     </row>
-    <row r="12" spans="1:66" ht="12" customHeight="1">
-      <c r="A12" s="147">
-        <v>5</v>
-      </c>
+    <row r="12" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A12" s="146"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="130" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="168" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="169"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="19"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="84"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="13"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
-      <c r="AZ12" s="7"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="13"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="7"/>
-      <c r="BE12" s="7"/>
-      <c r="BF12" s="7"/>
-      <c r="BG12" s="7"/>
-      <c r="BH12" s="7"/>
-      <c r="BI12" s="13"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="7"/>
-      <c r="BL12" s="7"/>
-      <c r="BM12" s="7"/>
+      <c r="C12" s="157" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="158"/>
+      <c r="E12" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="151"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="83"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="22"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="16"/>
+      <c r="BJ12" s="22"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="210"/>
       <c r="BN12" s="73"/>
     </row>
-    <row r="13" spans="1:66" ht="12" customHeight="1">
-      <c r="A13" s="157"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="74"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="26"/>
-      <c r="AW13" s="26"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="25"/>
-      <c r="BC13" s="26"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="26"/>
-      <c r="BK13" s="24"/>
-      <c r="BL13" s="24"/>
-      <c r="BM13" s="24"/>
-      <c r="BN13" s="74"/>
+    <row r="13" spans="1:66" ht="13.5" customHeight="1">
+      <c r="A13" s="120"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="200"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43"/>
+      <c r="BA13" s="43"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="43"/>
+      <c r="BE13" s="43"/>
+      <c r="BF13" s="43"/>
+      <c r="BG13" s="43"/>
+      <c r="BH13" s="43"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="43"/>
+      <c r="BL13" s="43"/>
+      <c r="BM13" s="43"/>
+      <c r="BN13" s="76"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="170">
+      <c r="A14" s="146">
+        <v>4</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="171" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="173" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="155"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="65"/>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="21"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="99"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="15"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="21"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="6"/>
-      <c r="AT14" s="6"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="6"/>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="6"/>
-      <c r="BB14" s="15"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="6"/>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="6"/>
-      <c r="BH14" s="6"/>
-      <c r="BI14" s="15"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="6"/>
-      <c r="BL14" s="6"/>
-      <c r="BM14" s="6"/>
-      <c r="BN14" s="75"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="151"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="83"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="16"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="22"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="170"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="85"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="24"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="24"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="24"/>
-      <c r="BF15" s="24"/>
-      <c r="BG15" s="24"/>
-      <c r="BH15" s="24"/>
-      <c r="BI15" s="25"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="24"/>
-      <c r="BL15" s="24"/>
-      <c r="BM15" s="24"/>
-      <c r="BN15" s="74"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="160"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="72"/>
+      <c r="AK15" s="83"/>
+      <c r="AL15" s="9"/>
+      <c r="AM15" s="9"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="9"/>
+      <c r="BA15" s="9"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="9"/>
+      <c r="BF15" s="9"/>
+      <c r="BG15" s="9"/>
+      <c r="BH15" s="9"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="9"/>
+      <c r="BM15" s="9"/>
+      <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="170">
-        <v>7</v>
+      <c r="A16" s="119">
+        <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="174" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="169"/>
+      <c r="C16" s="142" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="122"/>
+      <c r="E16" s="149" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="127"/>
       <c r="G16" s="51"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="13"/>
       <c r="M16" s="19"/>
       <c r="N16" s="63"/>
       <c r="O16" s="63"/>
       <c r="P16" s="63"/>
       <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
+      <c r="R16" s="30"/>
       <c r="S16" s="13"/>
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
-      <c r="AC16" s="30"/>
-      <c r="AD16" s="30"/>
-      <c r="AE16" s="104"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
       <c r="AF16" s="7"/>
       <c r="AG16" s="13"/>
       <c r="AH16" s="19"/>
@@ -4345,17 +4546,17 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="170"/>
+      <c r="A17" s="146"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="165"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="151"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
       <c r="L17" s="25"/>
       <c r="M17" s="26"/>
       <c r="N17" s="64"/>
@@ -4413,660 +4614,658 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="170">
-        <v>8</v>
-      </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="174" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="64"/>
-      <c r="AD18" s="64"/>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="64"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="88"/>
-      <c r="AL18" s="64"/>
-      <c r="AM18" s="64"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="64"/>
-      <c r="AQ18" s="64"/>
-      <c r="AR18" s="64"/>
-      <c r="AS18" s="64"/>
-      <c r="AT18" s="64"/>
-      <c r="AU18" s="25"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="64"/>
-      <c r="AY18" s="64"/>
-      <c r="AZ18" s="64"/>
-      <c r="BA18" s="64"/>
-      <c r="BB18" s="25"/>
-      <c r="BC18" s="26"/>
-      <c r="BD18" s="64"/>
-      <c r="BE18" s="64"/>
-      <c r="BF18" s="64"/>
-      <c r="BG18" s="64"/>
-      <c r="BH18" s="64"/>
-      <c r="BI18" s="25"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18" s="64"/>
-      <c r="BL18" s="64"/>
-      <c r="BM18" s="64"/>
-      <c r="BN18" s="77"/>
+      <c r="A18" s="141">
+        <v>6</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="114"/>
+      <c r="E18" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="139"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="99"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="6"/>
+      <c r="AQ18" s="6"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="6"/>
+      <c r="AT18" s="6"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="21"/>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
+      <c r="AZ18" s="6"/>
+      <c r="BA18" s="6"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="6"/>
+      <c r="BE18" s="6"/>
+      <c r="BF18" s="6"/>
+      <c r="BG18" s="6"/>
+      <c r="BH18" s="6"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="21"/>
+      <c r="BK18" s="6"/>
+      <c r="BL18" s="6"/>
+      <c r="BM18" s="6"/>
+      <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="170"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="68"/>
-      <c r="AD19" s="68"/>
-      <c r="AE19" s="68"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="78"/>
-      <c r="AK19" s="89"/>
-      <c r="AL19" s="68"/>
-      <c r="AM19" s="68"/>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="23"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="68"/>
-      <c r="AS19" s="68"/>
-      <c r="AT19" s="68"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="23"/>
-      <c r="AX19" s="68"/>
-      <c r="AY19" s="68"/>
-      <c r="AZ19" s="68"/>
-      <c r="BA19" s="68"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="23"/>
-      <c r="BD19" s="68"/>
-      <c r="BE19" s="68"/>
-      <c r="BF19" s="68"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="17"/>
-      <c r="BJ19" s="23"/>
-      <c r="BK19" s="68"/>
-      <c r="BL19" s="68"/>
-      <c r="BM19" s="68"/>
-      <c r="BN19" s="78"/>
+      <c r="A19" s="141"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="24"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="26"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="74"/>
+      <c r="AK19" s="85"/>
+      <c r="AL19" s="24"/>
+      <c r="AM19" s="24"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="26"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="24"/>
+      <c r="AS19" s="24"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="24"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="26"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="24"/>
+      <c r="BG19" s="24"/>
+      <c r="BH19" s="24"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="24"/>
+      <c r="BL19" s="24"/>
+      <c r="BM19" s="24"/>
+      <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="147">
-        <v>9</v>
-      </c>
-      <c r="B20" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="171" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="173" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="155"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="65"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="65"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="100"/>
-      <c r="AK20" s="102"/>
-      <c r="AL20" s="99"/>
-      <c r="AM20" s="99"/>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="21"/>
-      <c r="AP20" s="65"/>
-      <c r="AQ20" s="65"/>
-      <c r="AR20" s="65"/>
-      <c r="AS20" s="65"/>
-      <c r="AT20" s="65"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="21"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="65"/>
-      <c r="AY20" s="65"/>
-      <c r="AZ20" s="65"/>
-      <c r="BA20" s="65"/>
-      <c r="BB20" s="15"/>
-      <c r="BC20" s="21"/>
-      <c r="BD20" s="65"/>
-      <c r="BE20" s="65"/>
-      <c r="BF20" s="65"/>
-      <c r="BG20" s="65"/>
-      <c r="BH20" s="65"/>
-      <c r="BI20" s="15"/>
-      <c r="BJ20" s="21"/>
-      <c r="BK20" s="65"/>
-      <c r="BL20" s="65"/>
-      <c r="BM20" s="65"/>
-      <c r="BN20" s="79"/>
+      <c r="A20" s="141">
+        <v>7</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="122"/>
+      <c r="E20" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="127"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="30"/>
+      <c r="AD20" s="30"/>
+      <c r="AE20" s="104"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="7"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="13"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="13"/>
+      <c r="AV20" s="19"/>
+      <c r="AW20" s="19"/>
+      <c r="AX20" s="7"/>
+      <c r="AY20" s="7"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="13"/>
+      <c r="BC20" s="19"/>
+      <c r="BD20" s="7"/>
+      <c r="BE20" s="7"/>
+      <c r="BF20" s="7"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="13"/>
+      <c r="BJ20" s="19"/>
+      <c r="BK20" s="7"/>
+      <c r="BL20" s="7"/>
+      <c r="BM20" s="7"/>
+      <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="148"/>
-      <c r="B21" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="63"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="63"/>
-      <c r="W21" s="63"/>
-      <c r="X21" s="63"/>
-      <c r="Y21" s="63"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="63"/>
-      <c r="AD21" s="63"/>
-      <c r="AE21" s="63"/>
-      <c r="AF21" s="63"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="19"/>
-      <c r="AI21" s="63"/>
-      <c r="AJ21" s="80"/>
-      <c r="AK21" s="103"/>
-      <c r="AL21" s="104"/>
-      <c r="AM21" s="104"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="63"/>
-      <c r="AQ21" s="63"/>
-      <c r="AR21" s="63"/>
-      <c r="AS21" s="63"/>
-      <c r="AT21" s="63"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="19"/>
-      <c r="AW21" s="19"/>
-      <c r="AX21" s="63"/>
-      <c r="AY21" s="63"/>
-      <c r="AZ21" s="63"/>
-      <c r="BA21" s="63"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="19"/>
-      <c r="BD21" s="63"/>
-      <c r="BE21" s="63"/>
-      <c r="BF21" s="63"/>
-      <c r="BG21" s="63"/>
-      <c r="BH21" s="63"/>
-      <c r="BI21" s="13"/>
-      <c r="BJ21" s="19"/>
-      <c r="BK21" s="63"/>
-      <c r="BL21" s="63"/>
-      <c r="BM21" s="63"/>
-      <c r="BN21" s="80"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="26"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="85"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="26"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24"/>
+      <c r="AZ21" s="24"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="26"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="24"/>
+      <c r="BG21" s="24"/>
+      <c r="BH21" s="24"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="24"/>
+      <c r="BL21" s="24"/>
+      <c r="BM21" s="24"/>
+      <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="147">
-        <v>10</v>
+      <c r="A22" s="141">
+        <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="174" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="169"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="63"/>
-      <c r="W22" s="63"/>
-      <c r="X22" s="63"/>
-      <c r="Y22" s="63"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="19"/>
-      <c r="AC22" s="63"/>
-      <c r="AD22" s="63"/>
-      <c r="AE22" s="63"/>
-      <c r="AF22" s="63"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="19"/>
-      <c r="AI22" s="63"/>
-      <c r="AJ22" s="80"/>
-      <c r="AK22" s="101"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="19"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="63"/>
-      <c r="AS22" s="63"/>
-      <c r="AT22" s="63"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="19"/>
-      <c r="AW22" s="19"/>
-      <c r="AX22" s="63"/>
-      <c r="AY22" s="63"/>
-      <c r="AZ22" s="63"/>
-      <c r="BA22" s="63"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="19"/>
-      <c r="BD22" s="63"/>
-      <c r="BE22" s="63"/>
-      <c r="BF22" s="63"/>
-      <c r="BG22" s="63"/>
-      <c r="BH22" s="63"/>
-      <c r="BI22" s="13"/>
-      <c r="BJ22" s="19"/>
-      <c r="BK22" s="63"/>
-      <c r="BL22" s="63"/>
-      <c r="BM22" s="63"/>
-      <c r="BN22" s="80"/>
+      <c r="C22" s="142" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="122"/>
+      <c r="E22" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="127"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="64"/>
+      <c r="AD22" s="64"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="26"/>
+      <c r="AI22" s="64"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="88"/>
+      <c r="AL22" s="64"/>
+      <c r="AM22" s="64"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="64"/>
+      <c r="AQ22" s="64"/>
+      <c r="AR22" s="64"/>
+      <c r="AS22" s="64"/>
+      <c r="AT22" s="64"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="64"/>
+      <c r="AY22" s="64"/>
+      <c r="AZ22" s="64"/>
+      <c r="BA22" s="64"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="26"/>
+      <c r="BD22" s="64"/>
+      <c r="BE22" s="64"/>
+      <c r="BF22" s="64"/>
+      <c r="BG22" s="64"/>
+      <c r="BH22" s="64"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="26"/>
+      <c r="BK22" s="64"/>
+      <c r="BL22" s="64"/>
+      <c r="BM22" s="64"/>
+      <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="148"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="19"/>
-      <c r="AC23" s="63"/>
-      <c r="AD23" s="63"/>
-      <c r="AE23" s="63"/>
-      <c r="AF23" s="63"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="19"/>
-      <c r="AI23" s="63"/>
-      <c r="AJ23" s="80"/>
-      <c r="AK23" s="91"/>
-      <c r="AL23" s="63"/>
-      <c r="AM23" s="63"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="19"/>
-      <c r="AP23" s="63"/>
-      <c r="AQ23" s="63"/>
-      <c r="AR23" s="63"/>
-      <c r="AS23" s="63"/>
-      <c r="AT23" s="63"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="63"/>
-      <c r="AY23" s="63"/>
-      <c r="AZ23" s="63"/>
-      <c r="BA23" s="63"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="19"/>
-      <c r="BD23" s="63"/>
-      <c r="BE23" s="63"/>
-      <c r="BF23" s="63"/>
-      <c r="BG23" s="63"/>
-      <c r="BH23" s="63"/>
-      <c r="BI23" s="13"/>
-      <c r="BJ23" s="19"/>
-      <c r="BK23" s="63"/>
-      <c r="BL23" s="63"/>
-      <c r="BM23" s="63"/>
-      <c r="BN23" s="80"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="78"/>
+      <c r="AK23" s="89"/>
+      <c r="AL23" s="68"/>
+      <c r="AM23" s="68"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="68"/>
+      <c r="AQ23" s="68"/>
+      <c r="AR23" s="68"/>
+      <c r="AS23" s="68"/>
+      <c r="AT23" s="68"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="23"/>
+      <c r="AW23" s="23"/>
+      <c r="AX23" s="68"/>
+      <c r="AY23" s="68"/>
+      <c r="AZ23" s="68"/>
+      <c r="BA23" s="68"/>
+      <c r="BB23" s="17"/>
+      <c r="BC23" s="23"/>
+      <c r="BD23" s="68"/>
+      <c r="BE23" s="68"/>
+      <c r="BF23" s="68"/>
+      <c r="BG23" s="68"/>
+      <c r="BH23" s="68"/>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="23"/>
+      <c r="BK23" s="68"/>
+      <c r="BL23" s="68"/>
+      <c r="BM23" s="68"/>
+      <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="147">
-        <v>11</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="175" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="174" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="169"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="25"/>
-      <c r="AA24" s="26"/>
-      <c r="AB24" s="26"/>
-      <c r="AC24" s="64"/>
-      <c r="AD24" s="64"/>
-      <c r="AE24" s="64"/>
-      <c r="AF24" s="64"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="26"/>
-      <c r="AI24" s="64"/>
-      <c r="AJ24" s="77"/>
-      <c r="AK24" s="88"/>
-      <c r="AL24" s="64"/>
-      <c r="AM24" s="64"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="26"/>
-      <c r="AP24" s="105"/>
-      <c r="AQ24" s="105"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="26"/>
-      <c r="AW24" s="26"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="64"/>
-      <c r="BA24" s="64"/>
-      <c r="BB24" s="25"/>
-      <c r="BC24" s="26"/>
-      <c r="BD24" s="64"/>
-      <c r="BE24" s="64"/>
-      <c r="BF24" s="64"/>
-      <c r="BG24" s="64"/>
-      <c r="BH24" s="64"/>
-      <c r="BI24" s="25"/>
-      <c r="BJ24" s="26"/>
-      <c r="BK24" s="64"/>
-      <c r="BL24" s="64"/>
-      <c r="BM24" s="64"/>
-      <c r="BN24" s="77"/>
+      <c r="A24" s="119">
+        <v>9</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="114"/>
+      <c r="E24" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="139"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="100"/>
+      <c r="AK24" s="102"/>
+      <c r="AL24" s="99"/>
+      <c r="AM24" s="99"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="15"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="15"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="65"/>
+      <c r="BE24" s="65"/>
+      <c r="BF24" s="65"/>
+      <c r="BG24" s="65"/>
+      <c r="BH24" s="65"/>
+      <c r="BI24" s="15"/>
+      <c r="BJ24" s="21"/>
+      <c r="BK24" s="65"/>
+      <c r="BL24" s="65"/>
+      <c r="BM24" s="65"/>
+      <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="148"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="68"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="68"/>
-      <c r="AF25" s="68"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="68"/>
-      <c r="AJ25" s="78"/>
-      <c r="AK25" s="89"/>
-      <c r="AL25" s="68"/>
-      <c r="AM25" s="68"/>
-      <c r="AN25" s="17"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="68"/>
-      <c r="AQ25" s="68"/>
-      <c r="AR25" s="68"/>
-      <c r="AS25" s="68"/>
-      <c r="AT25" s="68"/>
-      <c r="AU25" s="17"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="68"/>
-      <c r="AY25" s="68"/>
-      <c r="AZ25" s="68"/>
-      <c r="BA25" s="68"/>
-      <c r="BB25" s="17"/>
-      <c r="BC25" s="23"/>
-      <c r="BD25" s="68"/>
-      <c r="BE25" s="68"/>
-      <c r="BF25" s="68"/>
-      <c r="BG25" s="68"/>
-      <c r="BH25" s="68"/>
-      <c r="BI25" s="17"/>
-      <c r="BJ25" s="23"/>
-      <c r="BK25" s="68"/>
-      <c r="BL25" s="68"/>
-      <c r="BM25" s="68"/>
-      <c r="BN25" s="78"/>
+      <c r="A25" s="120"/>
+      <c r="B25" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="80"/>
+      <c r="AK25" s="103"/>
+      <c r="AL25" s="104"/>
+      <c r="AM25" s="104"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="63"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="63"/>
+      <c r="AY25" s="63"/>
+      <c r="AZ25" s="63"/>
+      <c r="BA25" s="63"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="19"/>
+      <c r="BD25" s="63"/>
+      <c r="BE25" s="63"/>
+      <c r="BF25" s="63"/>
+      <c r="BG25" s="63"/>
+      <c r="BH25" s="63"/>
+      <c r="BI25" s="13"/>
+      <c r="BJ25" s="19"/>
+      <c r="BK25" s="63"/>
+      <c r="BL25" s="63"/>
+      <c r="BM25" s="63"/>
+      <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="128">
-        <v>12</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="176" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="177"/>
-      <c r="E26" s="180" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="182"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="65"/>
-      <c r="R26" s="65"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="65"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="21"/>
-      <c r="AB26" s="21"/>
-      <c r="AC26" s="65"/>
-      <c r="AD26" s="65"/>
-      <c r="AE26" s="65"/>
-      <c r="AF26" s="65"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="21"/>
-      <c r="AI26" s="65"/>
-      <c r="AJ26" s="79"/>
-      <c r="AK26" s="90"/>
-      <c r="AL26" s="65"/>
-      <c r="AM26" s="65"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="21"/>
-      <c r="AP26" s="65"/>
-      <c r="AQ26" s="65"/>
-      <c r="AR26" s="65"/>
-      <c r="AS26" s="65"/>
-      <c r="AT26" s="99"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="21"/>
-      <c r="AX26" s="99"/>
-      <c r="AY26" s="99"/>
-      <c r="AZ26" s="40"/>
-      <c r="BA26" s="40"/>
-      <c r="BB26" s="15"/>
-      <c r="BC26" s="21"/>
-      <c r="BD26" s="40"/>
-      <c r="BE26" s="65"/>
-      <c r="BF26" s="65"/>
-      <c r="BG26" s="65"/>
-      <c r="BH26" s="65"/>
-      <c r="BI26" s="15"/>
-      <c r="BJ26" s="21"/>
-      <c r="BK26" s="65"/>
-      <c r="BL26" s="65"/>
-      <c r="BM26" s="65"/>
-      <c r="BN26" s="79"/>
+      <c r="A26" s="213">
+        <v>10</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="122"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="101"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="104"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="63"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="63"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="19"/>
+      <c r="AW26" s="19"/>
+      <c r="AX26" s="63"/>
+      <c r="AY26" s="63"/>
+      <c r="AZ26" s="63"/>
+      <c r="BA26" s="63"/>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="19"/>
+      <c r="BD26" s="63"/>
+      <c r="BE26" s="63"/>
+      <c r="BF26" s="63"/>
+      <c r="BG26" s="63"/>
+      <c r="BH26" s="63"/>
+      <c r="BI26" s="13"/>
+      <c r="BJ26" s="19"/>
+      <c r="BK26" s="63"/>
+      <c r="BL26" s="63"/>
+      <c r="BM26" s="63"/>
+      <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="129"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="183"/>
+      <c r="A27" s="216"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="108"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5097,9 +5296,9 @@
       <c r="AH27" s="19"/>
       <c r="AI27" s="63"/>
       <c r="AJ27" s="80"/>
-      <c r="AK27" s="91"/>
-      <c r="AL27" s="63"/>
-      <c r="AM27" s="63"/>
+      <c r="AK27" s="103"/>
+      <c r="AL27" s="104"/>
+      <c r="AM27" s="104"/>
       <c r="AN27" s="13"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="63"/>
@@ -5129,180 +5328,1040 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="128">
+      <c r="A28" s="215"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="122"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="80"/>
+      <c r="AK28" s="103"/>
+      <c r="AL28" s="30"/>
+      <c r="AM28" s="30"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="63"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="63"/>
+      <c r="AY28" s="63"/>
+      <c r="AZ28" s="63"/>
+      <c r="BA28" s="63"/>
+      <c r="BB28" s="13"/>
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="63"/>
+      <c r="BE28" s="63"/>
+      <c r="BF28" s="63"/>
+      <c r="BG28" s="63"/>
+      <c r="BH28" s="63"/>
+      <c r="BI28" s="13"/>
+      <c r="BJ28" s="19"/>
+      <c r="BK28" s="63"/>
+      <c r="BL28" s="63"/>
+      <c r="BM28" s="63"/>
+      <c r="BN28" s="80"/>
+    </row>
+    <row r="29" spans="1:66" ht="12" customHeight="1">
+      <c r="A29" s="215"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="103"/>
+      <c r="AL29" s="104"/>
+      <c r="AM29" s="104"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="19"/>
+      <c r="AW29" s="19"/>
+      <c r="AX29" s="63"/>
+      <c r="AY29" s="63"/>
+      <c r="AZ29" s="63"/>
+      <c r="BA29" s="63"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="19"/>
+      <c r="BD29" s="63"/>
+      <c r="BE29" s="63"/>
+      <c r="BF29" s="63"/>
+      <c r="BG29" s="63"/>
+      <c r="BH29" s="63"/>
+      <c r="BI29" s="13"/>
+      <c r="BJ29" s="19"/>
+      <c r="BK29" s="63"/>
+      <c r="BL29" s="63"/>
+      <c r="BM29" s="63"/>
+      <c r="BN29" s="80"/>
+    </row>
+    <row r="30" spans="1:66" ht="12" customHeight="1">
+      <c r="A30" s="215"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="121" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="122"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="103"/>
+      <c r="AL30" s="104"/>
+      <c r="AM30" s="30"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="30"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="63"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="63"/>
+      <c r="AY30" s="63"/>
+      <c r="AZ30" s="63"/>
+      <c r="BA30" s="63"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="19"/>
+      <c r="BD30" s="63"/>
+      <c r="BE30" s="63"/>
+      <c r="BF30" s="63"/>
+      <c r="BG30" s="63"/>
+      <c r="BH30" s="63"/>
+      <c r="BI30" s="13"/>
+      <c r="BJ30" s="19"/>
+      <c r="BK30" s="63"/>
+      <c r="BL30" s="63"/>
+      <c r="BM30" s="63"/>
+      <c r="BN30" s="80"/>
+    </row>
+    <row r="31" spans="1:66" ht="12" customHeight="1">
+      <c r="A31" s="215"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="80"/>
+      <c r="AK31" s="103"/>
+      <c r="AL31" s="104"/>
+      <c r="AM31" s="104"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="19"/>
+      <c r="AW31" s="19"/>
+      <c r="AX31" s="63"/>
+      <c r="AY31" s="63"/>
+      <c r="AZ31" s="63"/>
+      <c r="BA31" s="63"/>
+      <c r="BB31" s="13"/>
+      <c r="BC31" s="19"/>
+      <c r="BD31" s="63"/>
+      <c r="BE31" s="63"/>
+      <c r="BF31" s="63"/>
+      <c r="BG31" s="63"/>
+      <c r="BH31" s="63"/>
+      <c r="BI31" s="13"/>
+      <c r="BJ31" s="19"/>
+      <c r="BK31" s="63"/>
+      <c r="BL31" s="63"/>
+      <c r="BM31" s="63"/>
+      <c r="BN31" s="80"/>
+    </row>
+    <row r="32" spans="1:66" ht="12" customHeight="1">
+      <c r="A32" s="213">
+        <v>11</v>
+      </c>
+      <c r="B32" s="36"/>
+      <c r="C32" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="122"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="80"/>
+      <c r="AK32" s="103"/>
+      <c r="AL32" s="104"/>
+      <c r="AM32" s="104"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="30"/>
+      <c r="AQ32" s="30"/>
+      <c r="AR32" s="30"/>
+      <c r="AS32" s="104"/>
+      <c r="AT32" s="104"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="19"/>
+      <c r="AW32" s="19"/>
+      <c r="AX32" s="63"/>
+      <c r="AY32" s="63"/>
+      <c r="AZ32" s="63"/>
+      <c r="BA32" s="63"/>
+      <c r="BB32" s="13"/>
+      <c r="BC32" s="19"/>
+      <c r="BD32" s="63"/>
+      <c r="BE32" s="63"/>
+      <c r="BF32" s="63"/>
+      <c r="BG32" s="63"/>
+      <c r="BH32" s="63"/>
+      <c r="BI32" s="13"/>
+      <c r="BJ32" s="19"/>
+      <c r="BK32" s="63"/>
+      <c r="BL32" s="63"/>
+      <c r="BM32" s="63"/>
+      <c r="BN32" s="80"/>
+    </row>
+    <row r="33" spans="1:66" ht="12" customHeight="1">
+      <c r="A33" s="216"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="80"/>
+      <c r="AK33" s="103"/>
+      <c r="AL33" s="104"/>
+      <c r="AM33" s="104"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="104"/>
+      <c r="AQ33" s="104"/>
+      <c r="AR33" s="104"/>
+      <c r="AS33" s="104"/>
+      <c r="AT33" s="104"/>
+      <c r="AU33" s="13"/>
+      <c r="AV33" s="19"/>
+      <c r="AW33" s="19"/>
+      <c r="AX33" s="63"/>
+      <c r="AY33" s="63"/>
+      <c r="AZ33" s="63"/>
+      <c r="BA33" s="63"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="19"/>
+      <c r="BD33" s="63"/>
+      <c r="BE33" s="63"/>
+      <c r="BF33" s="63"/>
+      <c r="BG33" s="63"/>
+      <c r="BH33" s="63"/>
+      <c r="BI33" s="13"/>
+      <c r="BJ33" s="19"/>
+      <c r="BK33" s="63"/>
+      <c r="BL33" s="63"/>
+      <c r="BM33" s="63"/>
+      <c r="BN33" s="80"/>
+    </row>
+    <row r="34" spans="1:66" ht="9.6" customHeight="1">
+      <c r="A34" s="216"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="122"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="80"/>
+      <c r="AK34" s="103"/>
+      <c r="AL34" s="104"/>
+      <c r="AM34" s="104"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="104"/>
+      <c r="AQ34" s="104"/>
+      <c r="AR34" s="30"/>
+      <c r="AS34" s="30"/>
+      <c r="AT34" s="30"/>
+      <c r="AU34" s="13"/>
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="63"/>
+      <c r="AY34" s="63"/>
+      <c r="AZ34" s="63"/>
+      <c r="BA34" s="63"/>
+      <c r="BB34" s="13"/>
+      <c r="BC34" s="19"/>
+      <c r="BD34" s="63"/>
+      <c r="BE34" s="63"/>
+      <c r="BF34" s="63"/>
+      <c r="BG34" s="63"/>
+      <c r="BH34" s="63"/>
+      <c r="BI34" s="13"/>
+      <c r="BJ34" s="19"/>
+      <c r="BK34" s="63"/>
+      <c r="BL34" s="63"/>
+      <c r="BM34" s="63"/>
+      <c r="BN34" s="80"/>
+    </row>
+    <row r="35" spans="1:66">
+      <c r="A35" s="216"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="80"/>
+      <c r="AK35" s="91"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="63"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="19"/>
+      <c r="AP35" s="104"/>
+      <c r="AQ35" s="104"/>
+      <c r="AR35" s="104"/>
+      <c r="AS35" s="104"/>
+      <c r="AT35" s="104"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="19"/>
+      <c r="AW35" s="19"/>
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="63"/>
+      <c r="AZ35" s="63"/>
+      <c r="BA35" s="63"/>
+      <c r="BB35" s="13"/>
+      <c r="BC35" s="19"/>
+      <c r="BD35" s="63"/>
+      <c r="BE35" s="63"/>
+      <c r="BF35" s="63"/>
+      <c r="BG35" s="63"/>
+      <c r="BH35" s="63"/>
+      <c r="BI35" s="13"/>
+      <c r="BJ35" s="19"/>
+      <c r="BK35" s="63"/>
+      <c r="BL35" s="63"/>
+      <c r="BM35" s="63"/>
+      <c r="BN35" s="80"/>
+    </row>
+    <row r="36" spans="1:66">
+      <c r="A36" s="217"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="122"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="64"/>
+      <c r="AF36" s="64"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="77"/>
+      <c r="AK36" s="88"/>
+      <c r="AL36" s="64"/>
+      <c r="AM36" s="64"/>
+      <c r="AN36" s="25"/>
+      <c r="AO36" s="26"/>
+      <c r="AP36" s="105"/>
+      <c r="AQ36" s="105"/>
+      <c r="AR36" s="105"/>
+      <c r="AS36" s="105"/>
+      <c r="AT36" s="105"/>
+      <c r="AU36" s="25"/>
+      <c r="AV36" s="26"/>
+      <c r="AW36" s="26"/>
+      <c r="AX36" s="42"/>
+      <c r="AY36" s="42"/>
+      <c r="AZ36" s="64"/>
+      <c r="BA36" s="64"/>
+      <c r="BB36" s="25"/>
+      <c r="BC36" s="26"/>
+      <c r="BD36" s="64"/>
+      <c r="BE36" s="64"/>
+      <c r="BF36" s="64"/>
+      <c r="BG36" s="64"/>
+      <c r="BH36" s="64"/>
+      <c r="BI36" s="25"/>
+      <c r="BJ36" s="26"/>
+      <c r="BK36" s="64"/>
+      <c r="BL36" s="64"/>
+      <c r="BM36" s="64"/>
+      <c r="BN36" s="77"/>
+    </row>
+    <row r="37" spans="1:66">
+      <c r="A37" s="214"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="68"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="78"/>
+      <c r="AK37" s="89"/>
+      <c r="AL37" s="68"/>
+      <c r="AM37" s="68"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="23"/>
+      <c r="AP37" s="68"/>
+      <c r="AQ37" s="68"/>
+      <c r="AR37" s="68"/>
+      <c r="AS37" s="68"/>
+      <c r="AT37" s="68"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="23"/>
+      <c r="AW37" s="23"/>
+      <c r="AX37" s="68"/>
+      <c r="AY37" s="68"/>
+      <c r="AZ37" s="68"/>
+      <c r="BA37" s="68"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="23"/>
+      <c r="BD37" s="68"/>
+      <c r="BE37" s="68"/>
+      <c r="BF37" s="68"/>
+      <c r="BG37" s="68"/>
+      <c r="BH37" s="68"/>
+      <c r="BI37" s="17"/>
+      <c r="BJ37" s="23"/>
+      <c r="BK37" s="68"/>
+      <c r="BL37" s="68"/>
+      <c r="BM37" s="68"/>
+      <c r="BN37" s="78"/>
+    </row>
+    <row r="38" spans="1:66">
+      <c r="A38" s="109">
+        <v>12</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="131"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="15"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="65"/>
+      <c r="X38" s="65"/>
+      <c r="Y38" s="65"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="65"/>
+      <c r="AF38" s="65"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="65"/>
+      <c r="AJ38" s="79"/>
+      <c r="AK38" s="90"/>
+      <c r="AL38" s="65"/>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="21"/>
+      <c r="AP38" s="65"/>
+      <c r="AQ38" s="65"/>
+      <c r="AR38" s="65"/>
+      <c r="AS38" s="65"/>
+      <c r="AT38" s="99"/>
+      <c r="AU38" s="15"/>
+      <c r="AV38" s="21"/>
+      <c r="AW38" s="21"/>
+      <c r="AX38" s="99"/>
+      <c r="AY38" s="99"/>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="40"/>
+      <c r="BB38" s="15"/>
+      <c r="BC38" s="21"/>
+      <c r="BD38" s="40"/>
+      <c r="BE38" s="65"/>
+      <c r="BF38" s="65"/>
+      <c r="BG38" s="65"/>
+      <c r="BH38" s="65"/>
+      <c r="BI38" s="15"/>
+      <c r="BJ38" s="21"/>
+      <c r="BK38" s="65"/>
+      <c r="BL38" s="65"/>
+      <c r="BM38" s="65"/>
+      <c r="BN38" s="79"/>
+    </row>
+    <row r="39" spans="1:66">
+      <c r="A39" s="129"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="63"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="63"/>
+      <c r="AJ39" s="80"/>
+      <c r="AK39" s="91"/>
+      <c r="AL39" s="63"/>
+      <c r="AM39" s="63"/>
+      <c r="AN39" s="13"/>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="63"/>
+      <c r="AQ39" s="63"/>
+      <c r="AR39" s="63"/>
+      <c r="AS39" s="63"/>
+      <c r="AT39" s="63"/>
+      <c r="AU39" s="13"/>
+      <c r="AV39" s="19"/>
+      <c r="AW39" s="19"/>
+      <c r="AX39" s="63"/>
+      <c r="AY39" s="63"/>
+      <c r="AZ39" s="63"/>
+      <c r="BA39" s="63"/>
+      <c r="BB39" s="13"/>
+      <c r="BC39" s="19"/>
+      <c r="BD39" s="63"/>
+      <c r="BE39" s="63"/>
+      <c r="BF39" s="63"/>
+      <c r="BG39" s="63"/>
+      <c r="BH39" s="63"/>
+      <c r="BI39" s="13"/>
+      <c r="BJ39" s="19"/>
+      <c r="BK39" s="63"/>
+      <c r="BL39" s="63"/>
+      <c r="BM39" s="63"/>
+      <c r="BN39" s="80"/>
+    </row>
+    <row r="40" spans="1:66">
+      <c r="A40" s="109">
         <v>14</v>
       </c>
-      <c r="B28" s="185" t="s">
+      <c r="B40" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="171" t="s">
+      <c r="C40" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="172"/>
-      <c r="E28" s="185" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="189"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="65"/>
-      <c r="X28" s="65"/>
-      <c r="Y28" s="65"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="65"/>
-      <c r="AD28" s="65"/>
-      <c r="AE28" s="65"/>
-      <c r="AF28" s="65"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="21"/>
-      <c r="AI28" s="65"/>
-      <c r="AJ28" s="79"/>
-      <c r="AK28" s="90"/>
-      <c r="AL28" s="65"/>
-      <c r="AM28" s="65"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="65"/>
-      <c r="AQ28" s="65"/>
-      <c r="AR28" s="65"/>
-      <c r="AS28" s="65"/>
-      <c r="AT28" s="65"/>
-      <c r="AU28" s="15"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="65"/>
-      <c r="AY28" s="65"/>
-      <c r="AZ28" s="99"/>
-      <c r="BA28" s="99"/>
-      <c r="BB28" s="15"/>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="65"/>
-      <c r="BE28" s="40"/>
-      <c r="BF28" s="40"/>
-      <c r="BG28" s="40"/>
-      <c r="BH28" s="40"/>
-      <c r="BI28" s="15"/>
-      <c r="BJ28" s="21"/>
-      <c r="BK28" s="65"/>
-      <c r="BL28" s="65"/>
-      <c r="BM28" s="65"/>
-      <c r="BN28" s="79"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="65"/>
+      <c r="X40" s="65"/>
+      <c r="Y40" s="65"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="65"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="21"/>
+      <c r="AI40" s="65"/>
+      <c r="AJ40" s="79"/>
+      <c r="AK40" s="90"/>
+      <c r="AL40" s="65"/>
+      <c r="AM40" s="65"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="21"/>
+      <c r="AP40" s="65"/>
+      <c r="AQ40" s="65"/>
+      <c r="AR40" s="65"/>
+      <c r="AS40" s="65"/>
+      <c r="AT40" s="65"/>
+      <c r="AU40" s="15"/>
+      <c r="AV40" s="21"/>
+      <c r="AW40" s="21"/>
+      <c r="AX40" s="65"/>
+      <c r="AY40" s="65"/>
+      <c r="AZ40" s="99"/>
+      <c r="BA40" s="99"/>
+      <c r="BB40" s="15"/>
+      <c r="BC40" s="21"/>
+      <c r="BD40" s="65"/>
+      <c r="BE40" s="40"/>
+      <c r="BF40" s="40"/>
+      <c r="BG40" s="40"/>
+      <c r="BH40" s="40"/>
+      <c r="BI40" s="15"/>
+      <c r="BJ40" s="21"/>
+      <c r="BK40" s="65"/>
+      <c r="BL40" s="65"/>
+      <c r="BM40" s="65"/>
+      <c r="BN40" s="79"/>
     </row>
-    <row r="29" spans="1:66" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="184"/>
-      <c r="B29" s="186"/>
-      <c r="C29" s="187"/>
-      <c r="D29" s="188"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="69"/>
-      <c r="AD29" s="69"/>
-      <c r="AE29" s="69"/>
-      <c r="AF29" s="69"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="69"/>
-      <c r="AJ29" s="81"/>
-      <c r="AK29" s="92"/>
-      <c r="AL29" s="69"/>
-      <c r="AM29" s="69"/>
-      <c r="AN29" s="14"/>
-      <c r="AO29" s="20"/>
-      <c r="AP29" s="69"/>
-      <c r="AQ29" s="69"/>
-      <c r="AR29" s="69"/>
-      <c r="AS29" s="69"/>
-      <c r="AT29" s="69"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="20"/>
-      <c r="AW29" s="20"/>
-      <c r="AX29" s="69"/>
-      <c r="AY29" s="69"/>
-      <c r="AZ29" s="69"/>
-      <c r="BA29" s="69"/>
-      <c r="BB29" s="14"/>
-      <c r="BC29" s="20"/>
-      <c r="BD29" s="69"/>
-      <c r="BE29" s="69"/>
-      <c r="BF29" s="69"/>
-      <c r="BG29" s="69"/>
-      <c r="BH29" s="69"/>
-      <c r="BI29" s="14"/>
-      <c r="BJ29" s="20"/>
-      <c r="BK29" s="69"/>
-      <c r="BL29" s="69"/>
-      <c r="BM29" s="69"/>
-      <c r="BN29" s="81"/>
+    <row r="41" spans="1:66" ht="10.199999999999999" thickBot="1">
+      <c r="A41" s="110"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="69"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="69"/>
+      <c r="Y41" s="69"/>
+      <c r="Z41" s="14"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="69"/>
+      <c r="AD41" s="69"/>
+      <c r="AE41" s="69"/>
+      <c r="AF41" s="69"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="69"/>
+      <c r="AJ41" s="81"/>
+      <c r="AK41" s="92"/>
+      <c r="AL41" s="69"/>
+      <c r="AM41" s="69"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="69"/>
+      <c r="AQ41" s="69"/>
+      <c r="AR41" s="69"/>
+      <c r="AS41" s="69"/>
+      <c r="AT41" s="69"/>
+      <c r="AU41" s="14"/>
+      <c r="AV41" s="20"/>
+      <c r="AW41" s="20"/>
+      <c r="AX41" s="69"/>
+      <c r="AY41" s="69"/>
+      <c r="AZ41" s="69"/>
+      <c r="BA41" s="69"/>
+      <c r="BB41" s="14"/>
+      <c r="BC41" s="20"/>
+      <c r="BD41" s="69"/>
+      <c r="BE41" s="69"/>
+      <c r="BF41" s="69"/>
+      <c r="BG41" s="69"/>
+      <c r="BH41" s="69"/>
+      <c r="BI41" s="14"/>
+      <c r="BJ41" s="20"/>
+      <c r="BK41" s="69"/>
+      <c r="BL41" s="69"/>
+      <c r="BM41" s="69"/>
+      <c r="BN41" s="81"/>
     </row>
-    <row r="30" spans="1:66">
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
+    <row r="42" spans="1:66">
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
     </row>
-    <row r="31" spans="1:66">
-      <c r="A31" s="27"/>
-      <c r="B31" s="1" t="s">
+    <row r="43" spans="1:66">
+      <c r="A43" s="27"/>
+      <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:66">
-      <c r="A32" s="28"/>
-      <c r="B32" s="1" t="s">
+    <row r="44" spans="1:66">
+      <c r="A44" s="28"/>
+      <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
+  <mergeCells count="68">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C26:D27"/>
     <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="G1:AJ1"/>
+    <mergeCell ref="AK1:BN1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C20:D21"/>
     <mergeCell ref="E20:E21"/>
@@ -5311,45 +6370,25 @@
     <mergeCell ref="C22:D23"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G1:AJ1"/>
-    <mergeCell ref="AK1:BN1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -5393,54 +6432,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="117"/>
-      <c r="E1" s="122" t="s">
+      <c r="D1" s="182"/>
+      <c r="E1" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="125" t="s">
+      <c r="F1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="108"/>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="109"/>
+      <c r="G1" s="172"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="174"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="126"/>
+      <c r="A2" s="176"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -5515,12 +6554,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="112"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="127"/>
+      <c r="A3" s="177"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="192"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -5595,20 +6634,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="138">
+      <c r="A4" s="165">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="143" t="s">
+      <c r="D4" s="167"/>
+      <c r="E4" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="145"/>
+      <c r="F4" s="170"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -5631,20 +6670,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="194" t="s">
+      <c r="AC4" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="191" t="s">
+      <c r="AD4" s="193" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
       <c r="A5" s="129"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="146"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -5667,22 +6706,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="195"/>
-      <c r="AD5" s="192"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="194"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="128">
+      <c r="A6" s="109">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="131"/>
-      <c r="E6" s="134" t="s">
+      <c r="D6" s="122"/>
+      <c r="E6" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="136"/>
+      <c r="F6" s="163"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -5705,16 +6744,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="195"/>
-      <c r="AD6" s="192"/>
+      <c r="AC6" s="197"/>
+      <c r="AD6" s="194"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
       <c r="A7" s="129"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="137"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="162"/>
+      <c r="F7" s="164"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -5737,24 +6776,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="195"/>
-      <c r="AD7" s="192"/>
+      <c r="AC7" s="197"/>
+      <c r="AD7" s="194"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="147">
+      <c r="A8" s="119">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="149" t="s">
+      <c r="C8" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="150"/>
-      <c r="E8" s="153" t="s">
+      <c r="D8" s="153"/>
+      <c r="E8" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="155"/>
+      <c r="F8" s="139"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5777,16 +6816,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="195"/>
-      <c r="AD8" s="192"/>
+      <c r="AC8" s="197"/>
+      <c r="AD8" s="194"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="148"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="156"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="128"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -5809,24 +6848,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="195"/>
-      <c r="AD9" s="192"/>
+      <c r="AC9" s="197"/>
+      <c r="AD9" s="194"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="157">
+      <c r="A10" s="146">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="159"/>
-      <c r="E10" s="162" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="150" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="164"/>
+      <c r="F10" s="151"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -5849,16 +6888,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="195"/>
-      <c r="AD10" s="192"/>
+      <c r="AC10" s="197"/>
+      <c r="AD10" s="194"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="148"/>
+      <c r="A11" s="120"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="165"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="140"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -5881,22 +6920,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="195"/>
-      <c r="AD11" s="192"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="194"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="147">
+      <c r="A12" s="119">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="168" t="s">
+      <c r="D12" s="122"/>
+      <c r="E12" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="169"/>
+      <c r="F12" s="127"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -5919,16 +6958,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="195"/>
-      <c r="AD12" s="192"/>
+      <c r="AC12" s="197"/>
+      <c r="AD12" s="194"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="157"/>
+      <c r="A13" s="146"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="164"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="151"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -5951,24 +6990,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="195"/>
-      <c r="AD13" s="192"/>
+      <c r="AC13" s="197"/>
+      <c r="AD13" s="194"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="170">
+      <c r="A14" s="141">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="173" t="s">
+      <c r="D14" s="114"/>
+      <c r="E14" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="155"/>
+      <c r="F14" s="139"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -5991,16 +7030,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="195"/>
-      <c r="AD14" s="192"/>
+      <c r="AC14" s="197"/>
+      <c r="AD14" s="194"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="170"/>
+      <c r="A15" s="141"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="165"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="140"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -6023,22 +7062,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="195"/>
-      <c r="AD15" s="192"/>
+      <c r="AC15" s="197"/>
+      <c r="AD15" s="194"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="170">
+      <c r="A16" s="141">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="130" t="s">
+      <c r="C16" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="174" t="s">
+      <c r="D16" s="122"/>
+      <c r="E16" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="169"/>
+      <c r="F16" s="127"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -6061,16 +7100,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="195"/>
-      <c r="AD16" s="192"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="194"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="170"/>
+      <c r="A17" s="141"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="165"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="140"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -6093,22 +7132,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="195"/>
-      <c r="AD17" s="192"/>
+      <c r="AC17" s="197"/>
+      <c r="AD17" s="194"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="170">
+      <c r="A18" s="141">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="130" t="s">
+      <c r="C18" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="174" t="s">
+      <c r="D18" s="122"/>
+      <c r="E18" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="169"/>
+      <c r="F18" s="127"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -6131,16 +7170,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="195"/>
-      <c r="AD18" s="192"/>
+      <c r="AC18" s="197"/>
+      <c r="AD18" s="194"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="170"/>
+      <c r="A19" s="141"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="156"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="128"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -6163,24 +7202,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="195"/>
-      <c r="AD19" s="192"/>
+      <c r="AC19" s="197"/>
+      <c r="AD19" s="194"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="147">
+      <c r="A20" s="119">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="171" t="s">
+      <c r="C20" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="173" t="s">
+      <c r="D20" s="114"/>
+      <c r="E20" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="155"/>
+      <c r="F20" s="139"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -6203,18 +7242,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="195"/>
-      <c r="AD20" s="192"/>
+      <c r="AC20" s="197"/>
+      <c r="AD20" s="194"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="148"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="165"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="140"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -6237,22 +7276,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="195"/>
-      <c r="AD21" s="192"/>
+      <c r="AC21" s="197"/>
+      <c r="AD21" s="194"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="147">
+      <c r="A22" s="119">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="174" t="s">
+      <c r="D22" s="122"/>
+      <c r="E22" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="169"/>
+      <c r="F22" s="127"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -6275,16 +7314,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="195"/>
-      <c r="AD22" s="192"/>
+      <c r="AC22" s="197"/>
+      <c r="AD22" s="194"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="148"/>
+      <c r="A23" s="120"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="165"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="140"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -6307,22 +7346,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="195"/>
-      <c r="AD23" s="192"/>
+      <c r="AC23" s="197"/>
+      <c r="AD23" s="194"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="147">
+      <c r="A24" s="119">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="175" t="s">
+      <c r="C24" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="131"/>
-      <c r="E24" s="174" t="s">
+      <c r="D24" s="122"/>
+      <c r="E24" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="169"/>
+      <c r="F24" s="127"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -6345,16 +7384,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="195"/>
-      <c r="AD24" s="192"/>
+      <c r="AC24" s="197"/>
+      <c r="AD24" s="194"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="148"/>
+      <c r="A25" s="120"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="163"/>
-      <c r="F25" s="156"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="128"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -6377,24 +7416,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="195"/>
-      <c r="AD25" s="192"/>
+      <c r="AC25" s="197"/>
+      <c r="AD25" s="194"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="128">
+      <c r="A26" s="109">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="176" t="s">
+      <c r="C26" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="177"/>
-      <c r="E26" s="180" t="s">
+      <c r="D26" s="131"/>
+      <c r="E26" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="182"/>
+      <c r="F26" s="136"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -6417,16 +7456,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="195"/>
-      <c r="AD26" s="192"/>
+      <c r="AC26" s="197"/>
+      <c r="AD26" s="194"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
       <c r="A27" s="129"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="183"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="137"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -6449,24 +7488,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="195"/>
-      <c r="AD27" s="192"/>
+      <c r="AC27" s="197"/>
+      <c r="AD27" s="194"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="128">
+      <c r="A28" s="109">
         <v>14</v>
       </c>
-      <c r="B28" s="185" t="s">
+      <c r="B28" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="171" t="s">
+      <c r="C28" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="172"/>
-      <c r="E28" s="185" t="s">
+      <c r="D28" s="114"/>
+      <c r="E28" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="189"/>
+      <c r="F28" s="117"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -6489,16 +7528,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="195"/>
-      <c r="AD28" s="192"/>
+      <c r="AC28" s="197"/>
+      <c r="AD28" s="194"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="184"/>
-      <c r="B29" s="186"/>
-      <c r="C29" s="187"/>
-      <c r="D29" s="188"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="190"/>
+      <c r="A29" s="110"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="118"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -6521,8 +7560,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="196"/>
-      <c r="AD29" s="193"/>
+      <c r="AC29" s="198"/>
+      <c r="AD29" s="195"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
@@ -6542,12 +7581,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="G1:AD1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="AD4:AD29"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="C6:D7"/>
@@ -6564,45 +7636,12 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G1:AD1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>

--- a/システム開発演習/000-要件定義/003-WBS.xlsx
+++ b/システム開発演習/000-要件定義/003-WBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Disstrg\個人\戦略本部\hn.takagi\デスクトップ\DIS\2.研修\java研修\システム開発演習\000-要件定義\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5C5E94-FFC1-4976-BA8F-E978E894B6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C8EB0C-6C84-4B6A-AFE8-02CD459B0C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="59">
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
@@ -589,6 +589,24 @@
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髙木日向子</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>午前</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>午後</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -695,7 +713,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="83">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -1725,11 +1743,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2010,9 +2043,6 @@
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="9" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2043,139 +2073,217 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2184,6 +2292,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2193,18 +2307,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2318,63 +2420,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3080,11 +3125,11 @@
   </sheetPr>
   <dimension ref="A1:BN44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="H8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4:F5"/>
+      <selection pane="bottomRight" activeCell="V15" activeCellId="1" sqref="V17 V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="9.6"/>
@@ -3101,94 +3146,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="182"/>
-      <c r="E1" s="187" t="s">
+      <c r="D1" s="205"/>
+      <c r="E1" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="190" t="s">
+      <c r="F1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="172">
+      <c r="G1" s="195">
         <v>45536</v>
       </c>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="173"/>
-      <c r="AE1" s="173"/>
-      <c r="AF1" s="173"/>
-      <c r="AG1" s="173"/>
-      <c r="AH1" s="173"/>
-      <c r="AI1" s="173"/>
-      <c r="AJ1" s="174"/>
-      <c r="AK1" s="172">
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="196"/>
+      <c r="AD1" s="196"/>
+      <c r="AE1" s="196"/>
+      <c r="AF1" s="196"/>
+      <c r="AG1" s="196"/>
+      <c r="AH1" s="196"/>
+      <c r="AI1" s="196"/>
+      <c r="AJ1" s="197"/>
+      <c r="AK1" s="195">
         <v>45566</v>
       </c>
-      <c r="AL1" s="173"/>
-      <c r="AM1" s="173"/>
-      <c r="AN1" s="173"/>
-      <c r="AO1" s="173"/>
-      <c r="AP1" s="173"/>
-      <c r="AQ1" s="173"/>
-      <c r="AR1" s="173"/>
-      <c r="AS1" s="173"/>
-      <c r="AT1" s="173"/>
-      <c r="AU1" s="173"/>
-      <c r="AV1" s="173"/>
-      <c r="AW1" s="173"/>
-      <c r="AX1" s="173"/>
-      <c r="AY1" s="173"/>
-      <c r="AZ1" s="173"/>
-      <c r="BA1" s="173"/>
-      <c r="BB1" s="173"/>
-      <c r="BC1" s="173"/>
-      <c r="BD1" s="173"/>
-      <c r="BE1" s="173"/>
-      <c r="BF1" s="173"/>
-      <c r="BG1" s="173"/>
-      <c r="BH1" s="173"/>
-      <c r="BI1" s="173"/>
-      <c r="BJ1" s="173"/>
-      <c r="BK1" s="173"/>
-      <c r="BL1" s="173"/>
-      <c r="BM1" s="173"/>
-      <c r="BN1" s="174"/>
+      <c r="AL1" s="196"/>
+      <c r="AM1" s="196"/>
+      <c r="AN1" s="196"/>
+      <c r="AO1" s="196"/>
+      <c r="AP1" s="196"/>
+      <c r="AQ1" s="196"/>
+      <c r="AR1" s="196"/>
+      <c r="AS1" s="196"/>
+      <c r="AT1" s="196"/>
+      <c r="AU1" s="196"/>
+      <c r="AV1" s="196"/>
+      <c r="AW1" s="196"/>
+      <c r="AX1" s="196"/>
+      <c r="AY1" s="196"/>
+      <c r="AZ1" s="196"/>
+      <c r="BA1" s="196"/>
+      <c r="BB1" s="196"/>
+      <c r="BC1" s="196"/>
+      <c r="BD1" s="196"/>
+      <c r="BE1" s="196"/>
+      <c r="BF1" s="196"/>
+      <c r="BG1" s="196"/>
+      <c r="BH1" s="196"/>
+      <c r="BI1" s="196"/>
+      <c r="BJ1" s="196"/>
+      <c r="BK1" s="196"/>
+      <c r="BL1" s="196"/>
+      <c r="BM1" s="196"/>
+      <c r="BN1" s="197"/>
     </row>
     <row r="2" spans="1:66" ht="10.5" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="191"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="46">
         <v>45537</v>
       </c>
@@ -3430,12 +3475,12 @@
       </c>
     </row>
     <row r="3" spans="1:66" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="177"/>
-      <c r="B3" s="180"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="192"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="215"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -3618,28 +3663,28 @@
       </c>
     </row>
     <row r="4" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A4" s="165">
+      <c r="A4" s="188">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168" t="s">
+      <c r="D4" s="190"/>
+      <c r="E4" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="170"/>
+      <c r="F4" s="193"/>
       <c r="G4" s="95"/>
       <c r="H4" s="29"/>
-      <c r="I4" s="96"/>
+      <c r="I4" s="127"/>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
       <c r="L4" s="12"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="126"/>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
@@ -3694,17 +3739,17 @@
       <c r="BN4" s="71"/>
     </row>
     <row r="5" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A5" s="129"/>
+      <c r="A5" s="148"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="97"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="31"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
       <c r="L5" s="16"/>
       <c r="M5" s="22"/>
       <c r="N5" s="9"/>
@@ -3762,18 +3807,18 @@
       <c r="BN5" s="72"/>
     </row>
     <row r="6" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A6" s="109">
+      <c r="A6" s="130">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="161" t="s">
+      <c r="D6" s="141"/>
+      <c r="E6" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="163"/>
+      <c r="F6" s="186"/>
       <c r="G6" s="51"/>
       <c r="H6" s="63"/>
       <c r="I6" s="30"/>
@@ -3836,12 +3881,12 @@
       <c r="BN6" s="73"/>
     </row>
     <row r="7" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A7" s="129"/>
+      <c r="A7" s="148"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="164"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="187"/>
       <c r="G7" s="52"/>
       <c r="H7" s="64"/>
       <c r="I7" s="32"/>
@@ -3904,32 +3949,32 @@
       <c r="BN7" s="74"/>
     </row>
     <row r="8" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A8" s="119">
+      <c r="A8" s="157">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="156" t="s">
+      <c r="D8" s="178"/>
+      <c r="E8" s="183" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="139"/>
+      <c r="F8" s="172"/>
       <c r="G8" s="38"/>
       <c r="H8" s="65"/>
       <c r="I8" s="65"/>
       <c r="J8" s="65"/>
-      <c r="K8" s="99"/>
+      <c r="K8" s="98"/>
       <c r="L8" s="15"/>
       <c r="M8" s="21"/>
       <c r="N8" s="30"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="98"/>
+      <c r="R8" s="98"/>
       <c r="S8" s="15"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -3980,96 +4025,96 @@
       <c r="BN8" s="75"/>
     </row>
     <row r="9" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A9" s="146"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="157"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="151"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="202"/>
-      <c r="N9" s="105"/>
-      <c r="O9" s="203"/>
-      <c r="P9" s="203"/>
-      <c r="Q9" s="203"/>
-      <c r="R9" s="203"/>
-      <c r="S9" s="201"/>
-      <c r="T9" s="202"/>
-      <c r="U9" s="202"/>
-      <c r="V9" s="204"/>
-      <c r="W9" s="204"/>
-      <c r="X9" s="204"/>
-      <c r="Y9" s="204"/>
-      <c r="Z9" s="201"/>
-      <c r="AA9" s="202"/>
-      <c r="AB9" s="202"/>
-      <c r="AC9" s="204"/>
-      <c r="AD9" s="204"/>
-      <c r="AE9" s="204"/>
-      <c r="AF9" s="204"/>
-      <c r="AG9" s="201"/>
-      <c r="AH9" s="202"/>
-      <c r="AI9" s="204"/>
-      <c r="AJ9" s="205"/>
-      <c r="AK9" s="206"/>
-      <c r="AL9" s="204"/>
-      <c r="AM9" s="204"/>
-      <c r="AN9" s="201"/>
-      <c r="AO9" s="202"/>
-      <c r="AP9" s="204"/>
-      <c r="AQ9" s="204"/>
-      <c r="AR9" s="204"/>
-      <c r="AS9" s="204"/>
-      <c r="AT9" s="204"/>
-      <c r="AU9" s="201"/>
-      <c r="AV9" s="202"/>
-      <c r="AW9" s="202"/>
-      <c r="AX9" s="204"/>
-      <c r="AY9" s="204"/>
-      <c r="AZ9" s="204"/>
-      <c r="BA9" s="204"/>
-      <c r="BB9" s="201"/>
-      <c r="BC9" s="202"/>
-      <c r="BD9" s="204"/>
-      <c r="BE9" s="204"/>
-      <c r="BF9" s="204"/>
-      <c r="BG9" s="204"/>
-      <c r="BH9" s="204"/>
-      <c r="BI9" s="201"/>
-      <c r="BJ9" s="202"/>
-      <c r="BK9" s="204"/>
-      <c r="BL9" s="204"/>
-      <c r="BM9" s="204"/>
-      <c r="BN9" s="205"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="123"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="109"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="108"/>
+      <c r="AH9" s="109"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="112"/>
+      <c r="AK9" s="113"/>
+      <c r="AL9" s="111"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="108"/>
+      <c r="AO9" s="109"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="111"/>
+      <c r="AU9" s="108"/>
+      <c r="AV9" s="109"/>
+      <c r="AW9" s="109"/>
+      <c r="AX9" s="111"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="111"/>
+      <c r="BB9" s="108"/>
+      <c r="BC9" s="109"/>
+      <c r="BD9" s="111"/>
+      <c r="BE9" s="111"/>
+      <c r="BF9" s="111"/>
+      <c r="BG9" s="111"/>
+      <c r="BH9" s="111"/>
+      <c r="BI9" s="108"/>
+      <c r="BJ9" s="109"/>
+      <c r="BK9" s="111"/>
+      <c r="BL9" s="111"/>
+      <c r="BM9" s="111"/>
+      <c r="BN9" s="112"/>
     </row>
     <row r="10" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A10" s="146"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="207" t="s">
+      <c r="C10" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="208"/>
-      <c r="E10" s="149" t="s">
+      <c r="D10" s="180"/>
+      <c r="E10" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="212"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="64"/>
       <c r="I10" s="64"/>
       <c r="J10" s="64"/>
-      <c r="K10" s="105"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="25"/>
       <c r="M10" s="26"/>
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="105"/>
-      <c r="R10" s="105"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
       <c r="S10" s="25"/>
       <c r="T10" s="26"/>
       <c r="U10" s="26"/>
@@ -4116,28 +4161,28 @@
       <c r="BJ10" s="26"/>
       <c r="BK10" s="24"/>
       <c r="BL10" s="24"/>
-      <c r="BM10" s="209"/>
+      <c r="BM10" s="114"/>
       <c r="BN10" s="73"/>
     </row>
     <row r="11" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A11" s="146"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="199"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="63"/>
-      <c r="K11" s="104"/>
+      <c r="K11" s="103"/>
       <c r="L11" s="13"/>
       <c r="M11" s="19"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
       <c r="S11" s="13"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
@@ -4172,7 +4217,7 @@
       <c r="AX11" s="7"/>
       <c r="AY11" s="7"/>
       <c r="AZ11" s="7"/>
-      <c r="BA11" s="211"/>
+      <c r="BA11" s="116"/>
       <c r="BB11" s="13"/>
       <c r="BC11" s="19"/>
       <c r="BD11" s="7"/>
@@ -4184,32 +4229,34 @@
       <c r="BJ11" s="19"/>
       <c r="BK11" s="7"/>
       <c r="BL11" s="7"/>
-      <c r="BM11" s="211"/>
-      <c r="BN11" s="205"/>
+      <c r="BM11" s="116"/>
+      <c r="BN11" s="112"/>
     </row>
     <row r="12" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A12" s="146"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="36"/>
-      <c r="C12" s="157" t="s">
+      <c r="C12" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="150" t="s">
+      <c r="D12" s="174"/>
+      <c r="E12" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="151"/>
-      <c r="G12" s="212"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="117"/>
       <c r="H12" s="62"/>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
-      <c r="K12" s="98"/>
+      <c r="K12" s="97"/>
       <c r="L12" s="16"/>
       <c r="M12" s="22"/>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
+      <c r="P12" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
       <c r="S12" s="16"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -4256,16 +4303,16 @@
       <c r="BJ12" s="22"/>
       <c r="BK12" s="9"/>
       <c r="BL12" s="9"/>
-      <c r="BM12" s="210"/>
+      <c r="BM12" s="115"/>
       <c r="BN12" s="73"/>
     </row>
     <row r="13" spans="1:66" ht="13.5" customHeight="1">
-      <c r="A13" s="120"/>
+      <c r="A13" s="158"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="128"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="147"/>
       <c r="G13" s="53"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
@@ -4273,9 +4320,9 @@
       <c r="K13" s="66"/>
       <c r="L13" s="44"/>
       <c r="M13" s="45"/>
-      <c r="N13" s="200"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="125"/>
       <c r="Q13" s="66"/>
       <c r="R13" s="66"/>
       <c r="S13" s="44"/>
@@ -4328,20 +4375,20 @@
       <c r="BN13" s="76"/>
     </row>
     <row r="14" spans="1:66" ht="12" customHeight="1">
-      <c r="A14" s="146">
+      <c r="A14" s="169">
         <v>4</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="158"/>
-      <c r="E14" s="150" t="s">
+      <c r="D14" s="174"/>
+      <c r="E14" s="163" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="151"/>
+      <c r="F14" s="128"/>
       <c r="G14" s="50"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62"/>
@@ -4351,14 +4398,16 @@
       <c r="M14" s="22"/>
       <c r="N14" s="67"/>
       <c r="O14" s="62"/>
-      <c r="P14" s="41"/>
+      <c r="P14" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="Q14" s="41"/>
-      <c r="R14" s="98"/>
+      <c r="R14" s="41"/>
       <c r="S14" s="16"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="97"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="16"/>
@@ -4404,12 +4453,12 @@
       <c r="BN14" s="72"/>
     </row>
     <row r="15" spans="1:66" ht="12" customHeight="1">
-      <c r="A15" s="120"/>
+      <c r="A15" s="158"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="160"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="140"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="50"/>
       <c r="H15" s="62"/>
       <c r="I15" s="62"/>
@@ -4419,16 +4468,16 @@
       <c r="M15" s="22"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
       <c r="S15" s="16"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
-      <c r="V15" s="9"/>
+      <c r="V15" s="31"/>
       <c r="W15" s="9"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="22"/>
       <c r="AB15" s="22"/>
@@ -4472,18 +4521,18 @@
       <c r="BN15" s="72"/>
     </row>
     <row r="16" spans="1:66" ht="12" customHeight="1">
-      <c r="A16" s="119">
+      <c r="A16" s="157">
         <v>5</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="149" t="s">
+      <c r="D16" s="141"/>
+      <c r="E16" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="127"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="51"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
@@ -4500,9 +4549,9 @@
       <c r="T16" s="19"/>
       <c r="U16" s="19"/>
       <c r="V16" s="30"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="19"/>
@@ -4546,12 +4595,12 @@
       <c r="BN16" s="73"/>
     </row>
     <row r="17" spans="1:66" ht="12" customHeight="1">
-      <c r="A17" s="146"/>
+      <c r="A17" s="169"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="151"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="128"/>
       <c r="G17" s="52"/>
       <c r="H17" s="64"/>
       <c r="I17" s="64"/>
@@ -4562,12 +4611,12 @@
       <c r="N17" s="64"/>
       <c r="O17" s="64"/>
       <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
       <c r="S17" s="25"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
-      <c r="V17" s="24"/>
+      <c r="V17" s="32"/>
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
       <c r="Y17" s="24"/>
@@ -4614,20 +4663,20 @@
       <c r="BN17" s="74"/>
     </row>
     <row r="18" spans="1:66" ht="12" customHeight="1">
-      <c r="A18" s="141">
+      <c r="A18" s="164">
         <v>6</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="113" t="s">
+      <c r="C18" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="138" t="s">
+      <c r="D18" s="135"/>
+      <c r="E18" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="139"/>
+      <c r="F18" s="172"/>
       <c r="G18" s="38"/>
       <c r="H18" s="65"/>
       <c r="I18" s="65"/>
@@ -4650,7 +4699,7 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="21"/>
       <c r="AB18" s="21"/>
-      <c r="AC18" s="99"/>
+      <c r="AC18" s="98"/>
       <c r="AD18" s="6"/>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
@@ -4690,12 +4739,12 @@
       <c r="BN18" s="75"/>
     </row>
     <row r="19" spans="1:66" ht="12" customHeight="1">
-      <c r="A19" s="141"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="140"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="129"/>
       <c r="G19" s="52"/>
       <c r="H19" s="64"/>
       <c r="I19" s="64"/>
@@ -4719,8 +4768,8 @@
       <c r="AA19" s="26"/>
       <c r="AB19" s="26"/>
       <c r="AC19" s="24"/>
-      <c r="AD19" s="105"/>
-      <c r="AE19" s="105"/>
+      <c r="AD19" s="104"/>
+      <c r="AE19" s="104"/>
       <c r="AF19" s="24"/>
       <c r="AG19" s="25"/>
       <c r="AH19" s="26"/>
@@ -4758,18 +4807,18 @@
       <c r="BN19" s="74"/>
     </row>
     <row r="20" spans="1:66" ht="12" customHeight="1">
-      <c r="A20" s="141">
+      <c r="A20" s="164">
         <v>7</v>
       </c>
       <c r="B20" s="36"/>
-      <c r="C20" s="142" t="s">
+      <c r="C20" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="125" t="s">
+      <c r="D20" s="141"/>
+      <c r="E20" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="127"/>
+      <c r="F20" s="146"/>
       <c r="G20" s="51"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -4794,7 +4843,7 @@
       <c r="AB20" s="19"/>
       <c r="AC20" s="30"/>
       <c r="AD20" s="30"/>
-      <c r="AE20" s="104"/>
+      <c r="AE20" s="103"/>
       <c r="AF20" s="7"/>
       <c r="AG20" s="13"/>
       <c r="AH20" s="19"/>
@@ -4832,12 +4881,12 @@
       <c r="BN20" s="73"/>
     </row>
     <row r="21" spans="1:66" ht="12" customHeight="1">
-      <c r="A21" s="141"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="140"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="52"/>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4900,18 +4949,18 @@
       <c r="BN21" s="74"/>
     </row>
     <row r="22" spans="1:66" ht="12" customHeight="1">
-      <c r="A22" s="141">
+      <c r="A22" s="164">
         <v>8</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="142" t="s">
+      <c r="C22" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="125" t="s">
+      <c r="D22" s="141"/>
+      <c r="E22" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="127"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="52"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
@@ -4974,12 +5023,12 @@
       <c r="BN22" s="77"/>
     </row>
     <row r="23" spans="1:66" ht="12" customHeight="1">
-      <c r="A23" s="141"/>
+      <c r="A23" s="164"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="128"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="147"/>
       <c r="G23" s="54"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -5042,20 +5091,20 @@
       <c r="BN23" s="78"/>
     </row>
     <row r="24" spans="1:66" ht="12" customHeight="1">
-      <c r="A24" s="119">
+      <c r="A24" s="157">
         <v>9</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="113" t="s">
+      <c r="C24" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="114"/>
-      <c r="E24" s="138" t="s">
+      <c r="D24" s="135"/>
+      <c r="E24" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="139"/>
+      <c r="F24" s="160"/>
       <c r="G24" s="38"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -5085,10 +5134,10 @@
       <c r="AG24" s="15"/>
       <c r="AH24" s="21"/>
       <c r="AI24" s="40"/>
-      <c r="AJ24" s="100"/>
-      <c r="AK24" s="102"/>
-      <c r="AL24" s="99"/>
-      <c r="AM24" s="99"/>
+      <c r="AJ24" s="99"/>
+      <c r="AK24" s="101"/>
+      <c r="AL24" s="98"/>
+      <c r="AM24" s="98"/>
       <c r="AN24" s="15"/>
       <c r="AO24" s="21"/>
       <c r="AP24" s="65"/>
@@ -5118,14 +5167,14 @@
       <c r="BN24" s="79"/>
     </row>
     <row r="25" spans="1:66" ht="12" customHeight="1">
-      <c r="A25" s="120"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="140"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="161"/>
       <c r="G25" s="51"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5156,9 +5205,9 @@
       <c r="AH25" s="19"/>
       <c r="AI25" s="63"/>
       <c r="AJ25" s="80"/>
-      <c r="AK25" s="103"/>
-      <c r="AL25" s="104"/>
-      <c r="AM25" s="104"/>
+      <c r="AK25" s="102"/>
+      <c r="AL25" s="103"/>
+      <c r="AM25" s="103"/>
       <c r="AN25" s="13"/>
       <c r="AO25" s="19"/>
       <c r="AP25" s="63"/>
@@ -5188,16 +5237,18 @@
       <c r="BN25" s="80"/>
     </row>
     <row r="26" spans="1:66" ht="12" customHeight="1">
-      <c r="A26" s="213">
+      <c r="A26" s="118">
         <v>10</v>
       </c>
       <c r="B26" s="36"/>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="162" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="146"/>
       <c r="G26" s="51"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5228,9 +5279,9 @@
       <c r="AH26" s="19"/>
       <c r="AI26" s="63"/>
       <c r="AJ26" s="80"/>
-      <c r="AK26" s="101"/>
+      <c r="AK26" s="100"/>
       <c r="AL26" s="30"/>
-      <c r="AM26" s="104"/>
+      <c r="AM26" s="103"/>
       <c r="AN26" s="13"/>
       <c r="AO26" s="19"/>
       <c r="AP26" s="63"/>
@@ -5260,12 +5311,12 @@
       <c r="BN26" s="80"/>
     </row>
     <row r="27" spans="1:66" ht="12" customHeight="1">
-      <c r="A27" s="216"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="108"/>
+      <c r="A27" s="121"/>
+      <c r="B27" s="105"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="128"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5296,9 +5347,9 @@
       <c r="AH27" s="19"/>
       <c r="AI27" s="63"/>
       <c r="AJ27" s="80"/>
-      <c r="AK27" s="103"/>
-      <c r="AL27" s="104"/>
-      <c r="AM27" s="104"/>
+      <c r="AK27" s="102"/>
+      <c r="AL27" s="103"/>
+      <c r="AM27" s="103"/>
       <c r="AN27" s="13"/>
       <c r="AO27" s="19"/>
       <c r="AP27" s="63"/>
@@ -5328,14 +5379,16 @@
       <c r="BN27" s="80"/>
     </row>
     <row r="28" spans="1:66" ht="12" customHeight="1">
-      <c r="A28" s="215"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="36"/>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="122"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="108"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="163" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="128"/>
       <c r="G28" s="51"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5366,7 +5419,7 @@
       <c r="AH28" s="19"/>
       <c r="AI28" s="63"/>
       <c r="AJ28" s="80"/>
-      <c r="AK28" s="103"/>
+      <c r="AK28" s="102"/>
       <c r="AL28" s="30"/>
       <c r="AM28" s="30"/>
       <c r="AN28" s="13"/>
@@ -5398,12 +5451,12 @@
       <c r="BN28" s="80"/>
     </row>
     <row r="29" spans="1:66" ht="12" customHeight="1">
-      <c r="A29" s="215"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="36"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="108"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="128"/>
       <c r="G29" s="51"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -5434,9 +5487,9 @@
       <c r="AH29" s="19"/>
       <c r="AI29" s="63"/>
       <c r="AJ29" s="80"/>
-      <c r="AK29" s="103"/>
-      <c r="AL29" s="104"/>
-      <c r="AM29" s="104"/>
+      <c r="AK29" s="102"/>
+      <c r="AL29" s="103"/>
+      <c r="AM29" s="103"/>
       <c r="AN29" s="13"/>
       <c r="AO29" s="19"/>
       <c r="AP29" s="63"/>
@@ -5466,14 +5519,16 @@
       <c r="BN29" s="80"/>
     </row>
     <row r="30" spans="1:66" ht="12" customHeight="1">
-      <c r="A30" s="215"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="36"/>
-      <c r="C30" s="121" t="s">
+      <c r="C30" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="122"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="108"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="163" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="128"/>
       <c r="G30" s="51"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -5504,8 +5559,8 @@
       <c r="AH30" s="19"/>
       <c r="AI30" s="63"/>
       <c r="AJ30" s="80"/>
-      <c r="AK30" s="103"/>
-      <c r="AL30" s="104"/>
+      <c r="AK30" s="102"/>
+      <c r="AL30" s="103"/>
       <c r="AM30" s="30"/>
       <c r="AN30" s="13"/>
       <c r="AO30" s="19"/>
@@ -5536,12 +5591,12 @@
       <c r="BN30" s="80"/>
     </row>
     <row r="31" spans="1:66" ht="12" customHeight="1">
-      <c r="A31" s="215"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="36"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="108"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="128"/>
       <c r="G31" s="51"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -5572,9 +5627,9 @@
       <c r="AH31" s="19"/>
       <c r="AI31" s="63"/>
       <c r="AJ31" s="80"/>
-      <c r="AK31" s="103"/>
-      <c r="AL31" s="104"/>
-      <c r="AM31" s="104"/>
+      <c r="AK31" s="102"/>
+      <c r="AL31" s="103"/>
+      <c r="AM31" s="103"/>
       <c r="AN31" s="13"/>
       <c r="AO31" s="19"/>
       <c r="AP31" s="63"/>
@@ -5604,16 +5659,18 @@
       <c r="BN31" s="80"/>
     </row>
     <row r="32" spans="1:66" ht="12" customHeight="1">
-      <c r="A32" s="213">
+      <c r="A32" s="118">
         <v>11</v>
       </c>
       <c r="B32" s="36"/>
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="122"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="108"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="163" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="128"/>
       <c r="G32" s="51"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -5644,16 +5701,16 @@
       <c r="AH32" s="19"/>
       <c r="AI32" s="63"/>
       <c r="AJ32" s="80"/>
-      <c r="AK32" s="103"/>
-      <c r="AL32" s="104"/>
-      <c r="AM32" s="104"/>
+      <c r="AK32" s="102"/>
+      <c r="AL32" s="103"/>
+      <c r="AM32" s="103"/>
       <c r="AN32" s="13"/>
       <c r="AO32" s="19"/>
       <c r="AP32" s="30"/>
       <c r="AQ32" s="30"/>
       <c r="AR32" s="30"/>
-      <c r="AS32" s="104"/>
-      <c r="AT32" s="104"/>
+      <c r="AS32" s="103"/>
+      <c r="AT32" s="103"/>
       <c r="AU32" s="13"/>
       <c r="AV32" s="19"/>
       <c r="AW32" s="19"/>
@@ -5676,12 +5733,12 @@
       <c r="BN32" s="80"/>
     </row>
     <row r="33" spans="1:66" ht="12" customHeight="1">
-      <c r="A33" s="216"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="108"/>
+      <c r="A33" s="121"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="129"/>
       <c r="G33" s="51"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
@@ -5712,16 +5769,16 @@
       <c r="AH33" s="19"/>
       <c r="AI33" s="63"/>
       <c r="AJ33" s="80"/>
-      <c r="AK33" s="103"/>
-      <c r="AL33" s="104"/>
-      <c r="AM33" s="104"/>
+      <c r="AK33" s="102"/>
+      <c r="AL33" s="103"/>
+      <c r="AM33" s="103"/>
       <c r="AN33" s="13"/>
       <c r="AO33" s="19"/>
-      <c r="AP33" s="104"/>
-      <c r="AQ33" s="104"/>
-      <c r="AR33" s="104"/>
-      <c r="AS33" s="104"/>
-      <c r="AT33" s="104"/>
+      <c r="AP33" s="103"/>
+      <c r="AQ33" s="103"/>
+      <c r="AR33" s="103"/>
+      <c r="AS33" s="103"/>
+      <c r="AT33" s="103"/>
       <c r="AU33" s="13"/>
       <c r="AV33" s="19"/>
       <c r="AW33" s="19"/>
@@ -5744,14 +5801,16 @@
       <c r="BN33" s="80"/>
     </row>
     <row r="34" spans="1:66" ht="9.6" customHeight="1">
-      <c r="A34" s="216"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="121" t="s">
+      <c r="A34" s="121"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="122"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="127"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="144" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="146"/>
       <c r="G34" s="51"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
@@ -5782,13 +5841,13 @@
       <c r="AH34" s="19"/>
       <c r="AI34" s="63"/>
       <c r="AJ34" s="80"/>
-      <c r="AK34" s="103"/>
-      <c r="AL34" s="104"/>
-      <c r="AM34" s="104"/>
+      <c r="AK34" s="102"/>
+      <c r="AL34" s="103"/>
+      <c r="AM34" s="103"/>
       <c r="AN34" s="13"/>
       <c r="AO34" s="19"/>
-      <c r="AP34" s="104"/>
-      <c r="AQ34" s="104"/>
+      <c r="AP34" s="103"/>
+      <c r="AQ34" s="103"/>
       <c r="AR34" s="30"/>
       <c r="AS34" s="30"/>
       <c r="AT34" s="30"/>
@@ -5814,12 +5873,12 @@
       <c r="BN34" s="80"/>
     </row>
     <row r="35" spans="1:66">
-      <c r="A35" s="216"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="140"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="129"/>
       <c r="G35" s="51"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
@@ -5855,11 +5914,11 @@
       <c r="AM35" s="63"/>
       <c r="AN35" s="13"/>
       <c r="AO35" s="19"/>
-      <c r="AP35" s="104"/>
-      <c r="AQ35" s="104"/>
-      <c r="AR35" s="104"/>
-      <c r="AS35" s="104"/>
-      <c r="AT35" s="104"/>
+      <c r="AP35" s="103"/>
+      <c r="AQ35" s="103"/>
+      <c r="AR35" s="103"/>
+      <c r="AS35" s="103"/>
+      <c r="AT35" s="103"/>
       <c r="AU35" s="13"/>
       <c r="AV35" s="19"/>
       <c r="AW35" s="19"/>
@@ -5882,14 +5941,16 @@
       <c r="BN35" s="80"/>
     </row>
     <row r="36" spans="1:66">
-      <c r="A36" s="217"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="121" t="s">
+      <c r="A36" s="122"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="122"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="127"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="144" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="146"/>
       <c r="G36" s="52"/>
       <c r="H36" s="24"/>
       <c r="I36" s="24"/>
@@ -5925,11 +5986,11 @@
       <c r="AM36" s="64"/>
       <c r="AN36" s="25"/>
       <c r="AO36" s="26"/>
-      <c r="AP36" s="105"/>
-      <c r="AQ36" s="105"/>
-      <c r="AR36" s="105"/>
-      <c r="AS36" s="105"/>
-      <c r="AT36" s="105"/>
+      <c r="AP36" s="104"/>
+      <c r="AQ36" s="104"/>
+      <c r="AR36" s="104"/>
+      <c r="AS36" s="104"/>
+      <c r="AT36" s="104"/>
       <c r="AU36" s="25"/>
       <c r="AV36" s="26"/>
       <c r="AW36" s="26"/>
@@ -5952,12 +6013,12 @@
       <c r="BN36" s="77"/>
     </row>
     <row r="37" spans="1:66">
-      <c r="A37" s="214"/>
+      <c r="A37" s="119"/>
       <c r="B37" s="37"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="128"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="143"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="147"/>
       <c r="G37" s="54"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
@@ -6020,18 +6081,20 @@
       <c r="BN37" s="78"/>
     </row>
     <row r="38" spans="1:66">
-      <c r="A38" s="109">
+      <c r="A38" s="130">
         <v>12</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="130" t="s">
+      <c r="C38" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="131"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="136"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="153" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="155"/>
       <c r="G38" s="38"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -6071,12 +6134,12 @@
       <c r="AQ38" s="65"/>
       <c r="AR38" s="65"/>
       <c r="AS38" s="65"/>
-      <c r="AT38" s="99"/>
+      <c r="AT38" s="98"/>
       <c r="AU38" s="15"/>
       <c r="AV38" s="21"/>
       <c r="AW38" s="21"/>
-      <c r="AX38" s="99"/>
-      <c r="AY38" s="99"/>
+      <c r="AX38" s="98"/>
+      <c r="AY38" s="98"/>
       <c r="AZ38" s="40"/>
       <c r="BA38" s="40"/>
       <c r="BB38" s="15"/>
@@ -6094,12 +6157,12 @@
       <c r="BN38" s="79"/>
     </row>
     <row r="39" spans="1:66">
-      <c r="A39" s="129"/>
+      <c r="A39" s="148"/>
       <c r="B39" s="34"/>
-      <c r="C39" s="132"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="137"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="156"/>
       <c r="G39" s="51"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -6162,18 +6225,20 @@
       <c r="BN39" s="80"/>
     </row>
     <row r="40" spans="1:66">
-      <c r="A40" s="109">
+      <c r="A40" s="130">
         <v>14</v>
       </c>
-      <c r="B40" s="111" t="s">
+      <c r="B40" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="113" t="s">
+      <c r="C40" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="114"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="117"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="132" t="s">
+        <v>56</v>
+      </c>
+      <c r="F40" s="138"/>
       <c r="G40" s="38"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -6219,8 +6284,8 @@
       <c r="AW40" s="21"/>
       <c r="AX40" s="65"/>
       <c r="AY40" s="65"/>
-      <c r="AZ40" s="99"/>
-      <c r="BA40" s="99"/>
+      <c r="AZ40" s="98"/>
+      <c r="BA40" s="98"/>
       <c r="BB40" s="15"/>
       <c r="BC40" s="21"/>
       <c r="BD40" s="65"/>
@@ -6236,12 +6301,12 @@
       <c r="BN40" s="79"/>
     </row>
     <row r="41" spans="1:66" ht="10.199999999999999" thickBot="1">
-      <c r="A41" s="110"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="118"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="136"/>
+      <c r="D41" s="137"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="139"/>
       <c r="G41" s="39"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -6320,12 +6385,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="C32:D33"/>
+  <mergeCells count="76">
     <mergeCell ref="G1:AJ1"/>
     <mergeCell ref="AK1:BN1"/>
     <mergeCell ref="A1:A3"/>
@@ -6354,6 +6414,7 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C16:D17"/>
     <mergeCell ref="E16:E17"/>
@@ -6377,6 +6438,23 @@
     <mergeCell ref="C34:D35"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
     <mergeCell ref="C36:D37"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
@@ -6384,11 +6462,6 @@
     <mergeCell ref="C38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions gridLinesSet="0"/>
@@ -6432,54 +6505,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A1" s="175" t="s">
+      <c r="A1" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="B1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="182"/>
-      <c r="E1" s="187" t="s">
+      <c r="D1" s="205"/>
+      <c r="E1" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="190" t="s">
+      <c r="F1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="172"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-      <c r="AD1" s="174"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="196"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
+      <c r="K1" s="196"/>
+      <c r="L1" s="196"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="196"/>
+      <c r="O1" s="196"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="196"/>
+      <c r="T1" s="196"/>
+      <c r="U1" s="196"/>
+      <c r="V1" s="196"/>
+      <c r="W1" s="196"/>
+      <c r="X1" s="196"/>
+      <c r="Y1" s="196"/>
+      <c r="Z1" s="196"/>
+      <c r="AA1" s="196"/>
+      <c r="AB1" s="196"/>
+      <c r="AC1" s="196"/>
+      <c r="AD1" s="197"/>
     </row>
     <row r="2" spans="1:30" ht="10.5" customHeight="1">
-      <c r="A2" s="176"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="191"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="214"/>
       <c r="G2" s="46">
         <v>22</v>
       </c>
@@ -6554,12 +6627,12 @@
       </c>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A3" s="177"/>
-      <c r="B3" s="180"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="192"/>
+      <c r="A3" s="200"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="215"/>
       <c r="G3" s="48" t="s">
         <v>18</v>
       </c>
@@ -6634,20 +6707,20 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A4" s="165">
+      <c r="A4" s="188">
         <v>1</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168" t="s">
+      <c r="D4" s="190"/>
+      <c r="E4" s="191" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="170"/>
+      <c r="F4" s="193"/>
       <c r="G4" s="49"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -6670,20 +6743,20 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="10"/>
-      <c r="AC4" s="196" t="s">
+      <c r="AC4" s="219" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="193" t="s">
+      <c r="AD4" s="216" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A5" s="129"/>
+      <c r="A5" s="148"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="169"/>
-      <c r="F5" s="171"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="194"/>
       <c r="G5" s="50"/>
       <c r="H5" s="31"/>
       <c r="I5" s="9"/>
@@ -6706,22 +6779,22 @@
       <c r="Z5" s="16"/>
       <c r="AA5" s="22"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="197"/>
-      <c r="AD5" s="194"/>
+      <c r="AC5" s="220"/>
+      <c r="AD5" s="217"/>
     </row>
     <row r="6" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A6" s="109">
+      <c r="A6" s="130">
         <v>2</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="165" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="122"/>
-      <c r="E6" s="161" t="s">
+      <c r="D6" s="141"/>
+      <c r="E6" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="163"/>
+      <c r="F6" s="186"/>
       <c r="G6" s="51"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -6744,16 +6817,16 @@
       <c r="Z6" s="13"/>
       <c r="AA6" s="19"/>
       <c r="AB6" s="7"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="194"/>
+      <c r="AC6" s="220"/>
+      <c r="AD6" s="217"/>
     </row>
     <row r="7" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A7" s="129"/>
+      <c r="A7" s="148"/>
       <c r="B7" s="34"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="164"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="185"/>
+      <c r="F7" s="187"/>
       <c r="G7" s="52"/>
       <c r="H7" s="32"/>
       <c r="I7" s="24"/>
@@ -6776,24 +6849,24 @@
       <c r="Z7" s="25"/>
       <c r="AA7" s="26"/>
       <c r="AB7" s="24"/>
-      <c r="AC7" s="197"/>
-      <c r="AD7" s="194"/>
+      <c r="AC7" s="220"/>
+      <c r="AD7" s="217"/>
     </row>
     <row r="8" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A8" s="119">
+      <c r="A8" s="157">
         <v>3</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="153"/>
-      <c r="E8" s="156" t="s">
+      <c r="D8" s="178"/>
+      <c r="E8" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="139"/>
+      <c r="F8" s="172"/>
       <c r="G8" s="38"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -6816,16 +6889,16 @@
       <c r="Z8" s="15"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="197"/>
-      <c r="AD8" s="194"/>
+      <c r="AC8" s="220"/>
+      <c r="AD8" s="217"/>
     </row>
     <row r="9" spans="1:30" ht="13.5" customHeight="1">
-      <c r="A9" s="120"/>
+      <c r="A9" s="158"/>
       <c r="B9" s="37"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="128"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="147"/>
       <c r="G9" s="53"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
@@ -6848,24 +6921,24 @@
       <c r="Z9" s="44"/>
       <c r="AA9" s="45"/>
       <c r="AB9" s="43"/>
-      <c r="AC9" s="197"/>
-      <c r="AD9" s="194"/>
+      <c r="AC9" s="220"/>
+      <c r="AD9" s="217"/>
     </row>
     <row r="10" spans="1:30" ht="12" customHeight="1">
-      <c r="A10" s="146">
+      <c r="A10" s="169">
         <v>4</v>
       </c>
       <c r="B10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="150" t="s">
+      <c r="D10" s="174"/>
+      <c r="E10" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="151"/>
+      <c r="F10" s="128"/>
       <c r="G10" s="50"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -6888,16 +6961,16 @@
       <c r="Z10" s="16"/>
       <c r="AA10" s="22"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="197"/>
-      <c r="AD10" s="194"/>
+      <c r="AC10" s="220"/>
+      <c r="AD10" s="217"/>
     </row>
     <row r="11" spans="1:30" ht="12" customHeight="1">
-      <c r="A11" s="120"/>
+      <c r="A11" s="158"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="140"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="129"/>
       <c r="G11" s="50"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -6920,22 +6993,22 @@
       <c r="Z11" s="16"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="197"/>
-      <c r="AD11" s="194"/>
+      <c r="AC11" s="220"/>
+      <c r="AD11" s="217"/>
     </row>
     <row r="12" spans="1:30" ht="12" customHeight="1">
-      <c r="A12" s="119">
+      <c r="A12" s="157">
         <v>5</v>
       </c>
       <c r="B12" s="36"/>
-      <c r="C12" s="142" t="s">
+      <c r="C12" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="122"/>
-      <c r="E12" s="149" t="s">
+      <c r="D12" s="141"/>
+      <c r="E12" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="127"/>
+      <c r="F12" s="146"/>
       <c r="G12" s="51"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -6958,16 +7031,16 @@
       <c r="Z12" s="13"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="7"/>
-      <c r="AC12" s="197"/>
-      <c r="AD12" s="194"/>
+      <c r="AC12" s="220"/>
+      <c r="AD12" s="217"/>
     </row>
     <row r="13" spans="1:30" ht="12" customHeight="1">
-      <c r="A13" s="146"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="151"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="128"/>
       <c r="G13" s="52"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -6990,24 +7063,24 @@
       <c r="Z13" s="25"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="24"/>
-      <c r="AC13" s="197"/>
-      <c r="AD13" s="194"/>
+      <c r="AC13" s="220"/>
+      <c r="AD13" s="217"/>
     </row>
     <row r="14" spans="1:30" ht="12" customHeight="1">
-      <c r="A14" s="141">
+      <c r="A14" s="164">
         <v>6</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="113" t="s">
+      <c r="C14" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="138" t="s">
+      <c r="D14" s="135"/>
+      <c r="E14" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="139"/>
+      <c r="F14" s="172"/>
       <c r="G14" s="38"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7030,16 +7103,16 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="21"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="197"/>
-      <c r="AD14" s="194"/>
+      <c r="AC14" s="220"/>
+      <c r="AD14" s="217"/>
     </row>
     <row r="15" spans="1:30" ht="12" customHeight="1">
-      <c r="A15" s="141"/>
+      <c r="A15" s="164"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="140"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="129"/>
       <c r="G15" s="52"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -7062,22 +7135,22 @@
       <c r="Z15" s="25"/>
       <c r="AA15" s="26"/>
       <c r="AB15" s="24"/>
-      <c r="AC15" s="197"/>
-      <c r="AD15" s="194"/>
+      <c r="AC15" s="220"/>
+      <c r="AD15" s="217"/>
     </row>
     <row r="16" spans="1:30" ht="12" customHeight="1">
-      <c r="A16" s="141">
+      <c r="A16" s="164">
         <v>7</v>
       </c>
       <c r="B16" s="36"/>
-      <c r="C16" s="142" t="s">
+      <c r="C16" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="122"/>
-      <c r="E16" s="125" t="s">
+      <c r="D16" s="141"/>
+      <c r="E16" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="127"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="51"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -7100,16 +7173,16 @@
       <c r="Z16" s="13"/>
       <c r="AA16" s="19"/>
       <c r="AB16" s="7"/>
-      <c r="AC16" s="197"/>
-      <c r="AD16" s="194"/>
+      <c r="AC16" s="220"/>
+      <c r="AD16" s="217"/>
     </row>
     <row r="17" spans="1:30" ht="12" customHeight="1">
-      <c r="A17" s="141"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="140"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="129"/>
       <c r="G17" s="52"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -7132,22 +7205,22 @@
       <c r="Z17" s="25"/>
       <c r="AA17" s="26"/>
       <c r="AB17" s="24"/>
-      <c r="AC17" s="197"/>
-      <c r="AD17" s="194"/>
+      <c r="AC17" s="220"/>
+      <c r="AD17" s="217"/>
     </row>
     <row r="18" spans="1:30" ht="12" customHeight="1">
-      <c r="A18" s="141">
+      <c r="A18" s="164">
         <v>8</v>
       </c>
       <c r="B18" s="36"/>
-      <c r="C18" s="142" t="s">
+      <c r="C18" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="122"/>
-      <c r="E18" s="125" t="s">
+      <c r="D18" s="141"/>
+      <c r="E18" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="127"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="52"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -7170,16 +7243,16 @@
       <c r="Z18" s="25"/>
       <c r="AA18" s="26"/>
       <c r="AB18" s="24"/>
-      <c r="AC18" s="197"/>
-      <c r="AD18" s="194"/>
+      <c r="AC18" s="220"/>
+      <c r="AD18" s="217"/>
     </row>
     <row r="19" spans="1:30" ht="12" customHeight="1">
-      <c r="A19" s="141"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="37"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="128"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="147"/>
       <c r="G19" s="54"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -7202,24 +7275,24 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="23"/>
       <c r="AB19" s="8"/>
-      <c r="AC19" s="197"/>
-      <c r="AD19" s="194"/>
+      <c r="AC19" s="220"/>
+      <c r="AD19" s="217"/>
     </row>
     <row r="20" spans="1:30" ht="12" customHeight="1">
-      <c r="A20" s="119">
+      <c r="A20" s="157">
         <v>9</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="113" t="s">
+      <c r="C20" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="138" t="s">
+      <c r="D20" s="135"/>
+      <c r="E20" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="139"/>
+      <c r="F20" s="172"/>
       <c r="G20" s="38"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7242,18 +7315,18 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="21"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="197"/>
-      <c r="AD20" s="194"/>
+      <c r="AC20" s="220"/>
+      <c r="AD20" s="217"/>
     </row>
     <row r="21" spans="1:30" ht="12" customHeight="1">
-      <c r="A21" s="120"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="140"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="129"/>
       <c r="G21" s="51"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -7276,22 +7349,22 @@
       <c r="Z21" s="13"/>
       <c r="AA21" s="19"/>
       <c r="AB21" s="7"/>
-      <c r="AC21" s="197"/>
-      <c r="AD21" s="194"/>
+      <c r="AC21" s="220"/>
+      <c r="AD21" s="217"/>
     </row>
     <row r="22" spans="1:30" ht="12" customHeight="1">
-      <c r="A22" s="119">
+      <c r="A22" s="157">
         <v>10</v>
       </c>
       <c r="B22" s="36"/>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="122"/>
-      <c r="E22" s="125" t="s">
+      <c r="D22" s="141"/>
+      <c r="E22" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="127"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="51"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -7314,16 +7387,16 @@
       <c r="Z22" s="13"/>
       <c r="AA22" s="19"/>
       <c r="AB22" s="7"/>
-      <c r="AC22" s="197"/>
-      <c r="AD22" s="194"/>
+      <c r="AC22" s="220"/>
+      <c r="AD22" s="217"/>
     </row>
     <row r="23" spans="1:30" ht="12" customHeight="1">
-      <c r="A23" s="120"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="140"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="129"/>
       <c r="G23" s="51"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -7346,22 +7419,22 @@
       <c r="Z23" s="13"/>
       <c r="AA23" s="19"/>
       <c r="AB23" s="7"/>
-      <c r="AC23" s="197"/>
-      <c r="AD23" s="194"/>
+      <c r="AC23" s="220"/>
+      <c r="AD23" s="217"/>
     </row>
     <row r="24" spans="1:30" ht="12" customHeight="1">
-      <c r="A24" s="119">
+      <c r="A24" s="157">
         <v>11</v>
       </c>
       <c r="B24" s="36"/>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="125" t="s">
+      <c r="D24" s="141"/>
+      <c r="E24" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="127"/>
+      <c r="F24" s="146"/>
       <c r="G24" s="52"/>
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
@@ -7384,16 +7457,16 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="26"/>
       <c r="AB24" s="24"/>
-      <c r="AC24" s="197"/>
-      <c r="AD24" s="194"/>
+      <c r="AC24" s="220"/>
+      <c r="AD24" s="217"/>
     </row>
     <row r="25" spans="1:30" ht="12" customHeight="1">
-      <c r="A25" s="120"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="37"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="128"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="147"/>
       <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -7416,24 +7489,24 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="23"/>
       <c r="AB25" s="8"/>
-      <c r="AC25" s="197"/>
-      <c r="AD25" s="194"/>
+      <c r="AC25" s="220"/>
+      <c r="AD25" s="217"/>
     </row>
     <row r="26" spans="1:30" ht="12" customHeight="1">
-      <c r="A26" s="109">
+      <c r="A26" s="130">
         <v>12</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="130" t="s">
+      <c r="C26" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="131"/>
-      <c r="E26" s="134" t="s">
+      <c r="D26" s="150"/>
+      <c r="E26" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="136"/>
+      <c r="F26" s="155"/>
       <c r="G26" s="38"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7456,16 +7529,16 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="197"/>
-      <c r="AD26" s="194"/>
+      <c r="AC26" s="220"/>
+      <c r="AD26" s="217"/>
     </row>
     <row r="27" spans="1:30" ht="12" customHeight="1">
-      <c r="A27" s="129"/>
+      <c r="A27" s="148"/>
       <c r="B27" s="34"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="137"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="156"/>
       <c r="G27" s="51"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -7488,24 +7561,24 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="19"/>
       <c r="AB27" s="7"/>
-      <c r="AC27" s="197"/>
-      <c r="AD27" s="194"/>
+      <c r="AC27" s="220"/>
+      <c r="AD27" s="217"/>
     </row>
     <row r="28" spans="1:30" ht="12" customHeight="1">
-      <c r="A28" s="109">
+      <c r="A28" s="130">
         <v>14</v>
       </c>
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="111" t="s">
+      <c r="D28" s="135"/>
+      <c r="E28" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="117"/>
+      <c r="F28" s="138"/>
       <c r="G28" s="38"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7528,16 +7601,16 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="21"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="197"/>
-      <c r="AD28" s="194"/>
+      <c r="AC28" s="220"/>
+      <c r="AD28" s="217"/>
     </row>
     <row r="29" spans="1:30" ht="12" customHeight="1" thickBot="1">
-      <c r="A29" s="110"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="116"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="118"/>
+      <c r="A29" s="131"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="139"/>
       <c r="G29" s="39"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7560,8 +7633,8 @@
       <c r="Z29" s="14"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="11"/>
-      <c r="AC29" s="198"/>
-      <c r="AD29" s="195"/>
+      <c r="AC29" s="221"/>
+      <c r="AD29" s="218"/>
     </row>
     <row r="30" spans="1:30">
       <c r="Z30" s="5"/>
